--- a/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002973143312484</v>
+        <v>1.021434299295901</v>
       </c>
       <c r="D3">
+        <v>0.9824365719561021</v>
+      </c>
+      <c r="E3">
         <v>1.021434299295901</v>
-      </c>
-      <c r="E3">
-        <v>0.9824365719561021</v>
       </c>
       <c r="F3">
         <v>1.002973143312484</v>
       </c>
       <c r="G3">
+        <v>1.022941055945873</v>
+      </c>
+      <c r="H3">
         <v>0.9616674664251792</v>
       </c>
-      <c r="H3">
-        <v>1.022941055945873</v>
-      </c>
       <c r="I3">
+        <v>1.002973143312484</v>
+      </c>
+      <c r="J3">
         <v>0.9876791418760358</v>
-      </c>
-      <c r="J3">
-        <v>1.021434299295901</v>
       </c>
       <c r="K3">
         <v>1.002973143312484</v>
@@ -728,7 +680,7 @@
         <v>0.9965219464685958</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006827728397747</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="D4">
+        <v>0.9666248618954427</v>
+      </c>
+      <c r="E4">
         <v>1.04124651101929</v>
-      </c>
-      <c r="E4">
-        <v>0.9666248618954427</v>
       </c>
       <c r="F4">
         <v>1.006827728397747</v>
       </c>
       <c r="G4">
-        <v>0.9272303576818325</v>
+        <v>1.044291473889115</v>
       </c>
       <c r="H4">
-        <v>1.044291473889115</v>
+        <v>0.9272303576818324</v>
       </c>
       <c r="I4">
+        <v>1.006827728397747</v>
+      </c>
+      <c r="J4">
         <v>0.976632963253919</v>
-      </c>
-      <c r="J4">
-        <v>1.04124651101929</v>
       </c>
       <c r="K4">
         <v>1.006827728397747</v>
@@ -790,7 +742,7 @@
         <v>0.9938089826895576</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.015344335113946</v>
+        <v>1.063186508789189</v>
       </c>
       <c r="D5">
+        <v>0.9331435714195726</v>
+      </c>
+      <c r="E5">
         <v>1.063186508789189</v>
-      </c>
-      <c r="E5">
-        <v>0.9331435714195726</v>
       </c>
       <c r="F5">
         <v>1.015344335113946</v>
       </c>
       <c r="G5">
-        <v>0.8662424345817931</v>
+        <v>1.079663307343284</v>
       </c>
       <c r="H5">
-        <v>1.079663307343284</v>
+        <v>0.8662424345817928</v>
       </c>
       <c r="I5">
+        <v>1.015344335113946</v>
+      </c>
+      <c r="J5">
         <v>0.9583109796846283</v>
-      </c>
-      <c r="J5">
-        <v>1.063186508789189</v>
       </c>
       <c r="K5">
         <v>1.015344335113946</v>
@@ -828,10 +780,10 @@
         <v>0.9331435714195726</v>
       </c>
       <c r="M5">
-        <v>0.9981650401043807</v>
+        <v>0.9981650401043808</v>
       </c>
       <c r="N5">
-        <v>0.9981650401043807</v>
+        <v>0.9981650401043808</v>
       </c>
       <c r="O5">
         <v>1.025331129184015</v>
@@ -849,10 +801,10 @@
         <v>1.006754687609164</v>
       </c>
       <c r="T5">
-        <v>0.9859818561554022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.985981856155402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015377451906047</v>
+        <v>1.040227874964162</v>
       </c>
       <c r="D6">
+        <v>0.8838866613742508</v>
+      </c>
+      <c r="E6">
         <v>1.040227874964162</v>
-      </c>
-      <c r="E6">
-        <v>0.8838866613742508</v>
       </c>
       <c r="F6">
         <v>1.015377451906047</v>
       </c>
       <c r="G6">
-        <v>0.7841573251638899</v>
+        <v>1.119080811087596</v>
       </c>
       <c r="H6">
-        <v>1.119080811087596</v>
+        <v>0.7841573251638898</v>
       </c>
       <c r="I6">
+        <v>1.015377451906047</v>
+      </c>
+      <c r="J6">
         <v>0.9374191158452037</v>
-      </c>
-      <c r="J6">
-        <v>1.040227874964162</v>
       </c>
       <c r="K6">
         <v>1.015377451906047</v>
@@ -914,7 +866,7 @@
         <v>0.963358206723525</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,34 +874,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999937760882218</v>
+        <v>1.001973978537138</v>
       </c>
       <c r="D7">
-        <v>1.001973978537139</v>
+        <v>0.9991204829049929</v>
       </c>
       <c r="E7">
-        <v>0.9991204829049938</v>
+        <v>1.001973978537138</v>
       </c>
       <c r="F7">
-        <v>0.999937760882218</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="G7">
-        <v>0.9987787416763921</v>
+        <v>1.001313338993374</v>
       </c>
       <c r="H7">
-        <v>1.001313338993374</v>
+        <v>0.9987787416763926</v>
       </c>
       <c r="I7">
-        <v>0.9989811547594749</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="J7">
-        <v>1.001973978537139</v>
+        <v>0.9989811547594752</v>
       </c>
       <c r="K7">
-        <v>0.999937760882218</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="L7">
-        <v>0.9991204829049938</v>
+        <v>0.9991204829049929</v>
       </c>
       <c r="M7">
         <v>1.000547230721066</v>
@@ -958,13 +910,13 @@
         <v>1.000547230721066</v>
       </c>
       <c r="O7">
-        <v>1.000802600145169</v>
+        <v>1.000802600145168</v>
       </c>
       <c r="P7">
-        <v>1.000344074108117</v>
+        <v>1.000344074108116</v>
       </c>
       <c r="Q7">
-        <v>1.000344074108117</v>
+        <v>1.000344074108116</v>
       </c>
       <c r="R7">
         <v>1.000242495801642</v>
@@ -976,7 +928,7 @@
         <v>1.000017576292265</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002009315604951</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="D8">
-        <v>1.004483279605483</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="E8">
-        <v>0.9977326876119766</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="F8">
-        <v>1.002009315604951</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="G8">
-        <v>0.9978146496435747</v>
+        <v>1.003071695510013</v>
       </c>
       <c r="H8">
-        <v>1.003071695510013</v>
+        <v>0.9978146496435741</v>
       </c>
       <c r="I8">
-        <v>0.997319956749698</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="J8">
-        <v>1.004483279605483</v>
+        <v>0.9973199567496976</v>
       </c>
       <c r="K8">
-        <v>1.002009315604951</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="L8">
-        <v>0.9977326876119766</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="M8">
         <v>1.00110798360873</v>
@@ -1023,10 +975,10 @@
         <v>1.001762554242491</v>
       </c>
       <c r="P8">
-        <v>1.00140842760747</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="Q8">
-        <v>1.00140842760747</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="R8">
         <v>1.001558649606841</v>
@@ -1038,7 +990,7 @@
         <v>1.00040526412095</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004867929824731</v>
+        <v>1.006999285088237</v>
       </c>
       <c r="D9">
+        <v>0.9964983857400731</v>
+      </c>
+      <c r="E9">
         <v>1.006999285088237</v>
-      </c>
-      <c r="E9">
-        <v>0.9964983857400731</v>
       </c>
       <c r="F9">
         <v>1.004867929824731</v>
       </c>
       <c r="G9">
+        <v>1.00399037780091</v>
+      </c>
+      <c r="H9">
         <v>0.9941991366036124</v>
       </c>
-      <c r="H9">
-        <v>1.00399037780091</v>
-      </c>
       <c r="I9">
+        <v>1.004867929824731</v>
+      </c>
+      <c r="J9">
         <v>0.9966832014218237</v>
-      </c>
-      <c r="J9">
-        <v>1.006999285088237</v>
       </c>
       <c r="K9">
         <v>1.004867929824731</v>
@@ -1100,7 +1052,7 @@
         <v>1.000539719413231</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007322118391491</v>
+        <v>1.013163220912</v>
       </c>
       <c r="D10">
+        <v>0.9927533543327617</v>
+      </c>
+      <c r="E10">
         <v>1.013163220912</v>
-      </c>
-      <c r="E10">
-        <v>0.9927533543327617</v>
       </c>
       <c r="F10">
         <v>1.007322118391491</v>
       </c>
       <c r="G10">
+        <v>1.008409837416527</v>
+      </c>
+      <c r="H10">
         <v>0.9889934033519625</v>
       </c>
-      <c r="H10">
-        <v>1.008409837416527</v>
-      </c>
       <c r="I10">
+        <v>1.007322118391491</v>
+      </c>
+      <c r="J10">
         <v>0.9925719819530319</v>
-      </c>
-      <c r="J10">
-        <v>1.013163220912</v>
       </c>
       <c r="K10">
         <v>1.007322118391491</v>
@@ -1162,7 +1114,7 @@
         <v>1.000535652726296</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.022502055393421</v>
+        <v>1.018844933777805</v>
       </c>
       <c r="D11">
+        <v>0.9846254240270744</v>
+      </c>
+      <c r="E11">
         <v>1.018844933777805</v>
-      </c>
-      <c r="E11">
-        <v>0.9846254240270742</v>
       </c>
       <c r="F11">
         <v>1.022502055393421</v>
       </c>
       <c r="G11">
-        <v>0.9774725197046199</v>
+        <v>1.015244989005219</v>
       </c>
       <c r="H11">
-        <v>1.015244989005219</v>
+        <v>0.9774725197046196</v>
       </c>
       <c r="I11">
+        <v>1.022502055393421</v>
+      </c>
+      <c r="J11">
         <v>0.9870989492018327</v>
-      </c>
-      <c r="J11">
-        <v>1.018844933777805</v>
       </c>
       <c r="K11">
         <v>1.022502055393421</v>
       </c>
       <c r="L11">
-        <v>0.9846254240270742</v>
+        <v>0.9846254240270744</v>
       </c>
       <c r="M11">
         <v>1.00173517890244</v>
@@ -1206,7 +1158,7 @@
         <v>1.00173517890244</v>
       </c>
       <c r="O11">
-        <v>1.006238448936699</v>
+        <v>1.0062384489367</v>
       </c>
       <c r="P11">
         <v>1.0086574710661</v>
@@ -1224,7 +1176,7 @@
         <v>1.000964811851662</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,40 +1184,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.684950839951145</v>
+        <v>0.4250440291123704</v>
       </c>
       <c r="D12">
-        <v>0.4250440291123708</v>
+        <v>0.8591386488652993</v>
       </c>
       <c r="E12">
-        <v>0.8591386488652991</v>
+        <v>0.4250440291123704</v>
       </c>
       <c r="F12">
         <v>1.684950839951145</v>
       </c>
       <c r="G12">
+        <v>0.8876723907577301</v>
+      </c>
+      <c r="H12">
         <v>0.3319920355424585</v>
       </c>
-      <c r="H12">
-        <v>0.8876723907577301</v>
-      </c>
       <c r="I12">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="J12">
         <v>1.096048518425797</v>
-      </c>
-      <c r="J12">
-        <v>0.4250440291123708</v>
       </c>
       <c r="K12">
         <v>1.684950839951145</v>
       </c>
       <c r="L12">
-        <v>0.8591386488652991</v>
+        <v>0.8591386488652993</v>
       </c>
       <c r="M12">
-        <v>0.642091338988835</v>
+        <v>0.6420913389888349</v>
       </c>
       <c r="N12">
-        <v>0.642091338988835</v>
+        <v>0.6420913389888349</v>
       </c>
       <c r="O12">
         <v>0.7239516895784667</v>
@@ -1274,7 +1226,7 @@
         <v>0.9897111726429383</v>
       </c>
       <c r="Q12">
-        <v>0.9897111726429381</v>
+        <v>0.9897111726429383</v>
       </c>
       <c r="R12">
         <v>1.16352108946999</v>
@@ -1283,10 +1235,10 @@
         <v>1.16352108946999</v>
       </c>
       <c r="T12">
-        <v>0.8808077437758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.8808077437758001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7318912868663987</v>
+        <v>1.160934499794196</v>
       </c>
       <c r="D13">
+        <v>1.074534427691004</v>
+      </c>
+      <c r="E13">
         <v>1.160934499794196</v>
-      </c>
-      <c r="E13">
-        <v>1.074534427691004</v>
       </c>
       <c r="F13">
         <v>0.7318912868663987</v>
       </c>
       <c r="G13">
+        <v>1.007927712914645</v>
+      </c>
+      <c r="H13">
         <v>1.395607564995098</v>
       </c>
-      <c r="H13">
-        <v>1.007927712914645</v>
-      </c>
       <c r="I13">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="J13">
         <v>0.9891341126136234</v>
-      </c>
-      <c r="J13">
-        <v>1.160934499794196</v>
       </c>
       <c r="K13">
         <v>0.7318912868663987</v>
@@ -1348,7 +1300,7 @@
         <v>1.060004934145828</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1239783455285957</v>
+        <v>1.292413382746126</v>
       </c>
       <c r="D14">
+        <v>1.358926550681507</v>
+      </c>
+      <c r="E14">
         <v>1.292413382746126</v>
       </c>
-      <c r="E14">
-        <v>1.358926550681507</v>
-      </c>
       <c r="F14">
-        <v>0.1239783455285957</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="G14">
+        <v>1.049211098525847</v>
+      </c>
+      <c r="H14">
         <v>2.065664994173343</v>
       </c>
-      <c r="H14">
-        <v>1.049211098525847</v>
-      </c>
       <c r="I14">
-        <v>0.9629233818555964</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="J14">
-        <v>1.292413382746126</v>
+        <v>0.9629233818555961</v>
       </c>
       <c r="K14">
-        <v>0.1239783455285957</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="L14">
         <v>1.358926550681507</v>
@@ -1410,7 +1362,7 @@
         <v>1.142186292251836</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.348066131739175</v>
+        <v>0.9076313267717879</v>
       </c>
       <c r="D15">
+        <v>0.9679326571662478</v>
+      </c>
+      <c r="E15">
         <v>0.9076313267717879</v>
       </c>
-      <c r="E15">
-        <v>0.9679326571662478</v>
-      </c>
       <c r="F15">
-        <v>1.348066131739175</v>
+        <v>1.348066131739176</v>
       </c>
       <c r="G15">
+        <v>0.7402963108679964</v>
+      </c>
+      <c r="H15">
         <v>0.4417138885944184</v>
       </c>
-      <c r="H15">
-        <v>0.7402963108679964</v>
-      </c>
       <c r="I15">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="J15">
         <v>1.152414154630152</v>
       </c>
-      <c r="J15">
-        <v>0.9076313267717879</v>
-      </c>
       <c r="K15">
-        <v>1.348066131739175</v>
+        <v>1.348066131739176</v>
       </c>
       <c r="L15">
         <v>0.9679326571662478</v>
@@ -1469,10 +1421,10 @@
         <v>1.142924061854097</v>
       </c>
       <c r="T15">
-        <v>0.9263424116282962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9263424116282964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9965400788789709</v>
+        <v>1.501481034952846</v>
       </c>
       <c r="D16">
-        <v>0.9998804949864692</v>
+        <v>0.6833337796338715</v>
       </c>
       <c r="E16">
-        <v>0.9996087808732865</v>
+        <v>1.501481034952846</v>
       </c>
       <c r="F16">
-        <v>0.9965400788789709</v>
+        <v>1.015652019457369</v>
       </c>
       <c r="G16">
-        <v>1.001480433168281</v>
+        <v>1.446567350948894</v>
       </c>
       <c r="H16">
-        <v>1.001077261245199</v>
+        <v>0.2792033147205248</v>
       </c>
       <c r="I16">
-        <v>1.000046509354893</v>
+        <v>1.015652019457369</v>
       </c>
       <c r="J16">
-        <v>0.9998804949864692</v>
+        <v>0.7688982784879141</v>
       </c>
       <c r="K16">
-        <v>0.9965400788789709</v>
+        <v>1.015652019457369</v>
       </c>
       <c r="L16">
-        <v>0.9996087808732865</v>
+        <v>0.6833337796338715</v>
       </c>
       <c r="M16">
-        <v>0.9997446379298779</v>
+        <v>1.092407407293359</v>
       </c>
       <c r="N16">
-        <v>0.9997446379298779</v>
+        <v>1.092407407293359</v>
       </c>
       <c r="O16">
-        <v>1.000188845701652</v>
+        <v>1.210460721845204</v>
       </c>
       <c r="P16">
-        <v>0.9986764515795755</v>
+        <v>1.066822278014696</v>
       </c>
       <c r="Q16">
-        <v>0.9986764515795755</v>
+        <v>1.066822278014695</v>
       </c>
       <c r="R16">
-        <v>0.9981423584044243</v>
+        <v>1.054029713375364</v>
       </c>
       <c r="S16">
-        <v>0.9981423584044243</v>
+        <v>1.054029713375364</v>
       </c>
       <c r="T16">
-        <v>0.9997722597511833</v>
+        <v>0.9491892963669031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006198067725392</v>
+        <v>1.454187943889153</v>
       </c>
       <c r="D17">
-        <v>1.003557894398805</v>
+        <v>0.7582490418591961</v>
       </c>
       <c r="E17">
-        <v>1.000101366946312</v>
+        <v>1.454187943889153</v>
       </c>
       <c r="F17">
-        <v>1.006198067725392</v>
+        <v>0.9644751210879677</v>
       </c>
       <c r="G17">
-        <v>0.9980639352427088</v>
+        <v>1.367991076700969</v>
       </c>
       <c r="H17">
-        <v>0.999896146146011</v>
+        <v>0.4578990736512996</v>
       </c>
       <c r="I17">
-        <v>0.9979393640849366</v>
+        <v>0.9644751210879677</v>
       </c>
       <c r="J17">
-        <v>1.003557894398805</v>
+        <v>0.8085079568598957</v>
       </c>
       <c r="K17">
-        <v>1.006198067725392</v>
+        <v>0.9644751210879677</v>
       </c>
       <c r="L17">
-        <v>1.000101366946312</v>
+        <v>0.7582490418591961</v>
       </c>
       <c r="M17">
-        <v>1.001829630672559</v>
+        <v>1.106218492874174</v>
       </c>
       <c r="N17">
-        <v>1.001829630672559</v>
+        <v>1.106218492874174</v>
       </c>
       <c r="O17">
-        <v>1.001185135830376</v>
+        <v>1.193476020816439</v>
       </c>
       <c r="P17">
-        <v>1.003285776356837</v>
+        <v>1.058970702278772</v>
       </c>
       <c r="Q17">
-        <v>1.003285776356837</v>
+        <v>1.058970702278772</v>
       </c>
       <c r="R17">
-        <v>1.004013849198975</v>
+        <v>1.035346806981071</v>
       </c>
       <c r="S17">
-        <v>1.004013849198975</v>
+        <v>1.035346806981071</v>
       </c>
       <c r="T17">
-        <v>1.000959462424028</v>
+        <v>0.9685517023414135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983025353370867</v>
+        <v>1.357340383054027</v>
       </c>
       <c r="D18">
-        <v>0.9961005522299856</v>
+        <v>0.9079076046495694</v>
       </c>
       <c r="E18">
-        <v>0.9886882570148895</v>
+        <v>1.357340383054027</v>
       </c>
       <c r="F18">
-        <v>0.9983025353370867</v>
+        <v>0.8675408205378258</v>
       </c>
       <c r="G18">
-        <v>0.9902251371831989</v>
+        <v>1.20924268530496</v>
       </c>
       <c r="H18">
-        <v>1.010430123942147</v>
+        <v>0.8147294438183833</v>
       </c>
       <c r="I18">
-        <v>0.99597150094863</v>
+        <v>0.8675408205378258</v>
       </c>
       <c r="J18">
-        <v>0.9961005522299856</v>
+        <v>0.8883075165210789</v>
       </c>
       <c r="K18">
-        <v>0.9983025353370867</v>
+        <v>0.8675408205378258</v>
       </c>
       <c r="L18">
-        <v>0.9886882570148895</v>
+        <v>0.9079076046495694</v>
       </c>
       <c r="M18">
-        <v>0.9923944046224376</v>
+        <v>1.132623993851798</v>
       </c>
       <c r="N18">
-        <v>0.9923944046224376</v>
+        <v>1.132623993851798</v>
       </c>
       <c r="O18">
-        <v>0.9984063110623408</v>
+        <v>1.158163557669519</v>
       </c>
       <c r="P18">
-        <v>0.9943637815273206</v>
+        <v>1.044262936080474</v>
       </c>
       <c r="Q18">
-        <v>0.9943637815273206</v>
+        <v>1.044262936080474</v>
       </c>
       <c r="R18">
-        <v>0.9953484699797621</v>
+        <v>1.000082407194812</v>
       </c>
       <c r="S18">
-        <v>0.9953484699797621</v>
+        <v>1.000082407194812</v>
       </c>
       <c r="T18">
-        <v>0.9966196844426564</v>
+        <v>1.007511408980974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9567014081255089</v>
+        <v>1.381927468283941</v>
       </c>
       <c r="D19">
+        <v>0.9066321755490511</v>
+      </c>
+      <c r="E19">
+        <v>1.381927468283941</v>
+      </c>
+      <c r="F19">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="G19">
+        <v>1.22800523376143</v>
+      </c>
+      <c r="H19">
+        <v>0.8370030601829055</v>
+      </c>
+      <c r="I19">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="J19">
+        <v>0.8735184047063063</v>
+      </c>
+      <c r="K19">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="L19">
+        <v>0.9066321755490511</v>
+      </c>
+      <c r="M19">
+        <v>1.144279821916496</v>
+      </c>
+      <c r="N19">
+        <v>1.144279821916496</v>
+      </c>
+      <c r="O19">
+        <v>1.172188292531474</v>
+      </c>
+      <c r="P19">
+        <v>1.038663339556594</v>
+      </c>
+      <c r="Q19">
+        <v>1.038663339556594</v>
+      </c>
+      <c r="R19">
+        <v>0.9858550983766435</v>
+      </c>
+      <c r="S19">
+        <v>0.9858550983766435</v>
+      </c>
+      <c r="T19">
+        <v>1.009086119553404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9998804949864696</v>
+      </c>
+      <c r="D20">
+        <v>0.999608780873287</v>
+      </c>
+      <c r="E20">
+        <v>0.9998804949864696</v>
+      </c>
+      <c r="F20">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="G20">
+        <v>1.001077261245199</v>
+      </c>
+      <c r="H20">
+        <v>1.001480433168281</v>
+      </c>
+      <c r="I20">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="J20">
+        <v>1.000046509354893</v>
+      </c>
+      <c r="K20">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="L20">
+        <v>0.999608780873287</v>
+      </c>
+      <c r="M20">
+        <v>0.9997446379298782</v>
+      </c>
+      <c r="N20">
+        <v>0.9997446379298782</v>
+      </c>
+      <c r="O20">
+        <v>1.000188845701652</v>
+      </c>
+      <c r="P20">
+        <v>0.9986764515795757</v>
+      </c>
+      <c r="Q20">
+        <v>0.9986764515795757</v>
+      </c>
+      <c r="R20">
+        <v>0.9981423584044244</v>
+      </c>
+      <c r="S20">
+        <v>0.9981423584044244</v>
+      </c>
+      <c r="T20">
+        <v>0.9997722597511834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.003557894398805</v>
+      </c>
+      <c r="D21">
+        <v>1.000101366946312</v>
+      </c>
+      <c r="E21">
+        <v>1.003557894398805</v>
+      </c>
+      <c r="F21">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="G21">
+        <v>0.9998961461460112</v>
+      </c>
+      <c r="H21">
+        <v>0.9980639352427068</v>
+      </c>
+      <c r="I21">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="J21">
+        <v>0.9979393640849364</v>
+      </c>
+      <c r="K21">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="L21">
+        <v>1.000101366946312</v>
+      </c>
+      <c r="M21">
+        <v>1.001829630672559</v>
+      </c>
+      <c r="N21">
+        <v>1.001829630672559</v>
+      </c>
+      <c r="O21">
+        <v>1.001185135830376</v>
+      </c>
+      <c r="P21">
+        <v>1.003285776356836</v>
+      </c>
+      <c r="Q21">
+        <v>1.003285776356836</v>
+      </c>
+      <c r="R21">
+        <v>1.004013849198975</v>
+      </c>
+      <c r="S21">
+        <v>1.004013849198975</v>
+      </c>
+      <c r="T21">
+        <v>1.000959462424027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9961005522299859</v>
+      </c>
+      <c r="D22">
+        <v>0.9886882570148895</v>
+      </c>
+      <c r="E22">
+        <v>0.9961005522299859</v>
+      </c>
+      <c r="F22">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="G22">
+        <v>1.010430123942148</v>
+      </c>
+      <c r="H22">
+        <v>0.990225137183199</v>
+      </c>
+      <c r="I22">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="J22">
+        <v>0.9959715009486297</v>
+      </c>
+      <c r="K22">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="L22">
+        <v>0.9886882570148895</v>
+      </c>
+      <c r="M22">
+        <v>0.9923944046224378</v>
+      </c>
+      <c r="N22">
+        <v>0.9923944046224378</v>
+      </c>
+      <c r="O22">
+        <v>0.998406311062341</v>
+      </c>
+      <c r="P22">
+        <v>0.994363781527321</v>
+      </c>
+      <c r="Q22">
+        <v>0.994363781527321</v>
+      </c>
+      <c r="R22">
+        <v>0.9953484699797626</v>
+      </c>
+      <c r="S22">
+        <v>0.9953484699797626</v>
+      </c>
+      <c r="T22">
+        <v>0.9966196844426566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.014644095420485</v>
       </c>
-      <c r="E19">
-        <v>0.980260839229429</v>
-      </c>
-      <c r="F19">
-        <v>0.9567014081255089</v>
-      </c>
-      <c r="G19">
-        <v>0.9779136439910728</v>
-      </c>
-      <c r="H19">
+      <c r="D23">
+        <v>0.9802608392294291</v>
+      </c>
+      <c r="E23">
+        <v>1.014644095420485</v>
+      </c>
+      <c r="F23">
+        <v>0.9567014081255085</v>
+      </c>
+      <c r="G23">
         <v>1.028657729970695</v>
       </c>
-      <c r="I19">
+      <c r="H23">
+        <v>0.9779136439910726</v>
+      </c>
+      <c r="I23">
+        <v>0.9567014081255085</v>
+      </c>
+      <c r="J23">
         <v>1.00158398139586</v>
       </c>
-      <c r="J19">
-        <v>1.014644095420485</v>
-      </c>
-      <c r="K19">
-        <v>0.9567014081255089</v>
-      </c>
-      <c r="L19">
-        <v>0.980260839229429</v>
-      </c>
-      <c r="M19">
+      <c r="K23">
+        <v>0.9567014081255085</v>
+      </c>
+      <c r="L23">
+        <v>0.9802608392294291</v>
+      </c>
+      <c r="M23">
         <v>0.997452467324957</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.997452467324957</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.007854221540203</v>
       </c>
-      <c r="P19">
+      <c r="P23">
+        <v>0.9838687809251407</v>
+      </c>
+      <c r="Q23">
         <v>0.9838687809251409</v>
       </c>
-      <c r="Q19">
-        <v>0.9838687809251409</v>
-      </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9770769377252329</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9770769377252329</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9932936163555084</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.021434299295901</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="D3">
-        <v>0.9824365719561021</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="E3">
-        <v>1.021434299295901</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="F3">
-        <v>1.002973143312484</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="G3">
-        <v>1.022941055945873</v>
+        <v>1.240962918530766</v>
       </c>
       <c r="H3">
-        <v>0.9616674664251792</v>
+        <v>0.789140896233317</v>
       </c>
       <c r="I3">
-        <v>1.002973143312484</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="J3">
-        <v>0.9876791418760358</v>
+        <v>0.8682876559956771</v>
       </c>
       <c r="K3">
-        <v>1.002973143312484</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="L3">
-        <v>0.9824365719561021</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="M3">
-        <v>1.001935435626002</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="N3">
-        <v>1.001935435626002</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="O3">
-        <v>1.008937309065959</v>
+        <v>1.170073588306023</v>
       </c>
       <c r="P3">
-        <v>1.002281338188162</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="Q3">
-        <v>1.002281338188162</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="R3">
-        <v>1.002454289469243</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="S3">
-        <v>1.002454289469243</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="T3">
-        <v>0.9965219464685958</v>
+        <v>1.002312379786794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.04124651101929</v>
+        <v>1.370342931351705</v>
       </c>
       <c r="D4">
-        <v>0.9666248618954427</v>
+        <v>0.8983820027218565</v>
       </c>
       <c r="E4">
-        <v>1.04124651101929</v>
+        <v>1.370342931351705</v>
       </c>
       <c r="F4">
-        <v>1.006827728397747</v>
+        <v>0.8512271084597909</v>
       </c>
       <c r="G4">
-        <v>1.044291473889115</v>
+        <v>1.224672081106891</v>
       </c>
       <c r="H4">
-        <v>0.9272303576818324</v>
+        <v>0.8048099039078399</v>
       </c>
       <c r="I4">
-        <v>1.006827728397747</v>
+        <v>0.8512271084597909</v>
       </c>
       <c r="J4">
-        <v>0.976632963253919</v>
+        <v>0.8793861414312346</v>
       </c>
       <c r="K4">
-        <v>1.006827728397747</v>
+        <v>0.8512271084597909</v>
       </c>
       <c r="L4">
-        <v>0.9666248618954427</v>
+        <v>0.8983820027218565</v>
       </c>
       <c r="M4">
-        <v>1.003935686457366</v>
+        <v>1.134362467036781</v>
       </c>
       <c r="N4">
-        <v>1.003935686457366</v>
+        <v>1.134362467036781</v>
       </c>
       <c r="O4">
-        <v>1.017387615601282</v>
+        <v>1.164465671726818</v>
       </c>
       <c r="P4">
-        <v>1.004899700437493</v>
+        <v>1.039984014177784</v>
       </c>
       <c r="Q4">
-        <v>1.004899700437493</v>
+        <v>1.039984014177784</v>
       </c>
       <c r="R4">
-        <v>1.005381707427557</v>
+        <v>0.9927947877482859</v>
       </c>
       <c r="S4">
-        <v>1.005381707427557</v>
+        <v>0.9927947877482859</v>
       </c>
       <c r="T4">
-        <v>0.9938089826895576</v>
+        <v>1.004803361496553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.063186508789189</v>
+        <v>1.409794663944686</v>
       </c>
       <c r="D5">
-        <v>0.9331435714195726</v>
+        <v>0.8603752520781679</v>
       </c>
       <c r="E5">
-        <v>1.063186508789189</v>
+        <v>1.409794663944686</v>
       </c>
       <c r="F5">
-        <v>1.015344335113946</v>
+        <v>0.8393452193584912</v>
       </c>
       <c r="G5">
-        <v>1.079663307343284</v>
+        <v>1.271435597440165</v>
       </c>
       <c r="H5">
-        <v>0.8662424345817928</v>
+        <v>0.7592171939406193</v>
       </c>
       <c r="I5">
-        <v>1.015344335113946</v>
+        <v>0.8393452193584912</v>
       </c>
       <c r="J5">
-        <v>0.9583109796846283</v>
+        <v>0.8469615854177901</v>
       </c>
       <c r="K5">
-        <v>1.015344335113946</v>
+        <v>0.8393452193584912</v>
       </c>
       <c r="L5">
-        <v>0.9331435714195726</v>
+        <v>0.8603752520781679</v>
       </c>
       <c r="M5">
-        <v>0.9981650401043808</v>
+        <v>1.135084958011427</v>
       </c>
       <c r="N5">
-        <v>0.9981650401043808</v>
+        <v>1.135084958011427</v>
       </c>
       <c r="O5">
-        <v>1.025331129184015</v>
+        <v>1.18053517115434</v>
       </c>
       <c r="P5">
-        <v>1.003891471774236</v>
+        <v>1.036505045127115</v>
       </c>
       <c r="Q5">
-        <v>1.003891471774236</v>
+        <v>1.036505045127115</v>
       </c>
       <c r="R5">
-        <v>1.006754687609164</v>
+        <v>0.9872150886849591</v>
       </c>
       <c r="S5">
-        <v>1.006754687609164</v>
+        <v>0.9872150886849591</v>
       </c>
       <c r="T5">
-        <v>0.985981856155402</v>
+        <v>0.9978549186966533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.040227874964162</v>
+        <v>1.436497519256265</v>
       </c>
       <c r="D6">
-        <v>0.8838866613742508</v>
+        <v>0.8364285700965917</v>
       </c>
       <c r="E6">
-        <v>1.040227874964162</v>
+        <v>1.436497519256265</v>
       </c>
       <c r="F6">
-        <v>1.015377451906047</v>
+        <v>0.8373924990886362</v>
       </c>
       <c r="G6">
-        <v>1.119080811087596</v>
+        <v>1.300159894229545</v>
       </c>
       <c r="H6">
-        <v>0.7841573251638898</v>
+        <v>0.7300447306015911</v>
       </c>
       <c r="I6">
-        <v>1.015377451906047</v>
+        <v>0.8373924990886362</v>
       </c>
       <c r="J6">
-        <v>0.9374191158452037</v>
+        <v>0.8268138324886376</v>
       </c>
       <c r="K6">
-        <v>1.015377451906047</v>
+        <v>0.8373924990886362</v>
       </c>
       <c r="L6">
-        <v>0.8838866613742508</v>
+        <v>0.8364285700965917</v>
       </c>
       <c r="M6">
-        <v>0.9620572681692066</v>
+        <v>1.136463044676428</v>
       </c>
       <c r="N6">
-        <v>0.9620572681692066</v>
+        <v>1.136463044676428</v>
       </c>
       <c r="O6">
-        <v>1.014398449142003</v>
+        <v>1.191028661194134</v>
       </c>
       <c r="P6">
-        <v>0.9798306627481534</v>
+        <v>1.036772862813831</v>
       </c>
       <c r="Q6">
-        <v>0.9798306627481536</v>
+        <v>1.036772862813831</v>
       </c>
       <c r="R6">
-        <v>0.988717360037627</v>
+        <v>0.9869277718825321</v>
       </c>
       <c r="S6">
-        <v>0.988717360037627</v>
+        <v>0.9869277718825321</v>
       </c>
       <c r="T6">
-        <v>0.963358206723525</v>
+        <v>0.9945561742935444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001973978537138</v>
+        <v>0.2024620190916609</v>
       </c>
       <c r="D7">
-        <v>0.9991204829049929</v>
+        <v>0.8572384046250319</v>
       </c>
       <c r="E7">
-        <v>1.001973978537138</v>
+        <v>0.2024620190916609</v>
       </c>
       <c r="F7">
-        <v>0.9999377608822174</v>
+        <v>1.244774062495717</v>
       </c>
       <c r="G7">
-        <v>1.001313338993374</v>
+        <v>0.7864244122673598</v>
       </c>
       <c r="H7">
-        <v>0.9987787416763926</v>
+        <v>1.628802641778928</v>
       </c>
       <c r="I7">
-        <v>0.9999377608822174</v>
+        <v>1.244774062495717</v>
       </c>
       <c r="J7">
-        <v>0.9989811547594752</v>
+        <v>1.134936130842558</v>
       </c>
       <c r="K7">
-        <v>0.9999377608822174</v>
+        <v>1.244774062495717</v>
       </c>
       <c r="L7">
-        <v>0.9991204829049929</v>
+        <v>0.8572384046250319</v>
       </c>
       <c r="M7">
-        <v>1.000547230721066</v>
+        <v>0.5298502118583464</v>
       </c>
       <c r="N7">
-        <v>1.000547230721066</v>
+        <v>0.5298502118583464</v>
       </c>
       <c r="O7">
-        <v>1.000802600145168</v>
+        <v>0.6153749453280175</v>
       </c>
       <c r="P7">
-        <v>1.000344074108116</v>
+        <v>0.7681581620708032</v>
       </c>
       <c r="Q7">
-        <v>1.000344074108116</v>
+        <v>0.7681581620708032</v>
       </c>
       <c r="R7">
-        <v>1.000242495801642</v>
+        <v>0.8873121371770317</v>
       </c>
       <c r="S7">
-        <v>1.000242495801642</v>
+        <v>0.8873121371770317</v>
       </c>
       <c r="T7">
-        <v>1.000017576292265</v>
+        <v>0.9757729451835426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.004483279605484</v>
+        <v>0.2110438779903187</v>
       </c>
       <c r="D8">
-        <v>0.9977326876119763</v>
+        <v>0.8537133148913461</v>
       </c>
       <c r="E8">
-        <v>1.004483279605484</v>
+        <v>0.2110438779903187</v>
       </c>
       <c r="F8">
-        <v>1.002009315604952</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="G8">
-        <v>1.003071695510013</v>
+        <v>0.790450232665279</v>
       </c>
       <c r="H8">
-        <v>0.9978146496435741</v>
+        <v>1.620511231693051</v>
       </c>
       <c r="I8">
-        <v>1.002009315604952</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="J8">
-        <v>0.9973199567496976</v>
+        <v>1.130376317274342</v>
       </c>
       <c r="K8">
-        <v>1.002009315604952</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="L8">
-        <v>0.9977326876119763</v>
+        <v>0.8537133148913461</v>
       </c>
       <c r="M8">
-        <v>1.00110798360873</v>
+        <v>0.5323785964408324</v>
       </c>
       <c r="N8">
-        <v>1.00110798360873</v>
+        <v>0.5323785964408324</v>
       </c>
       <c r="O8">
-        <v>1.001762554242491</v>
+        <v>0.6184024751823146</v>
       </c>
       <c r="P8">
-        <v>1.001408427607471</v>
+        <v>0.7724287316365238</v>
       </c>
       <c r="Q8">
-        <v>1.001408427607471</v>
+        <v>0.7724287316365238</v>
       </c>
       <c r="R8">
-        <v>1.001558649606841</v>
+        <v>0.8924537992343694</v>
       </c>
       <c r="S8">
-        <v>1.001558649606841</v>
+        <v>0.8924537992343694</v>
       </c>
       <c r="T8">
-        <v>1.00040526412095</v>
+        <v>0.9764373294237071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006999285088237</v>
+        <v>0.2208759589173307</v>
       </c>
       <c r="D9">
-        <v>0.9964983857400731</v>
+        <v>0.8519302181893699</v>
       </c>
       <c r="E9">
-        <v>1.006999285088237</v>
+        <v>0.2208759589173307</v>
       </c>
       <c r="F9">
-        <v>1.004867929824731</v>
+        <v>1.250726961493908</v>
       </c>
       <c r="G9">
-        <v>1.00399037780091</v>
+        <v>0.7934554034130457</v>
       </c>
       <c r="H9">
-        <v>0.9941991366036124</v>
+        <v>1.615840224109329</v>
       </c>
       <c r="I9">
-        <v>1.004867929824731</v>
+        <v>1.250726961493908</v>
       </c>
       <c r="J9">
-        <v>0.9966832014218237</v>
+        <v>1.126907329456827</v>
       </c>
       <c r="K9">
-        <v>1.004867929824731</v>
+        <v>1.250726961493908</v>
       </c>
       <c r="L9">
-        <v>0.9964983857400731</v>
+        <v>0.8519302181893699</v>
       </c>
       <c r="M9">
-        <v>1.001748835414155</v>
+        <v>0.5364030885533503</v>
       </c>
       <c r="N9">
-        <v>1.001748835414155</v>
+        <v>0.5364030885533503</v>
       </c>
       <c r="O9">
-        <v>1.00249601620974</v>
+        <v>0.622087193506582</v>
       </c>
       <c r="P9">
-        <v>1.002788533551014</v>
+        <v>0.7745110462002031</v>
       </c>
       <c r="Q9">
-        <v>1.002788533551014</v>
+        <v>0.7745110462002031</v>
       </c>
       <c r="R9">
-        <v>1.003308382619443</v>
+        <v>0.8935650250236293</v>
       </c>
       <c r="S9">
-        <v>1.003308382619443</v>
+        <v>0.8935650250236293</v>
       </c>
       <c r="T9">
-        <v>1.000539719413231</v>
+        <v>0.9766226825966351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.013163220912</v>
+        <v>0.2364576538998109</v>
       </c>
       <c r="D10">
-        <v>0.9927533543327617</v>
+        <v>0.8422510753584675</v>
       </c>
       <c r="E10">
-        <v>1.013163220912</v>
+        <v>0.2364576538998109</v>
       </c>
       <c r="F10">
-        <v>1.007322118391491</v>
+        <v>1.303673909638655</v>
       </c>
       <c r="G10">
-        <v>1.008409837416527</v>
+        <v>0.7896481916803806</v>
       </c>
       <c r="H10">
-        <v>0.9889934033519625</v>
+        <v>1.594639822236078</v>
       </c>
       <c r="I10">
-        <v>1.007322118391491</v>
+        <v>1.303673909638655</v>
       </c>
       <c r="J10">
-        <v>0.9925719819530319</v>
+        <v>1.116964203916733</v>
       </c>
       <c r="K10">
-        <v>1.007322118391491</v>
+        <v>1.303673909638655</v>
       </c>
       <c r="L10">
-        <v>0.9927533543327617</v>
+        <v>0.8422510753584675</v>
       </c>
       <c r="M10">
-        <v>1.002958287622381</v>
+        <v>0.5393543646291392</v>
       </c>
       <c r="N10">
-        <v>1.002958287622381</v>
+        <v>0.5393543646291392</v>
       </c>
       <c r="O10">
-        <v>1.004775470887096</v>
+        <v>0.6227856403128863</v>
       </c>
       <c r="P10">
-        <v>1.004412897878751</v>
+        <v>0.7941275462989777</v>
       </c>
       <c r="Q10">
-        <v>1.004412897878751</v>
+        <v>0.7941275462989777</v>
       </c>
       <c r="R10">
-        <v>1.005140203006936</v>
+        <v>0.9215141371338971</v>
       </c>
       <c r="S10">
-        <v>1.005140203006936</v>
+        <v>0.9215141371338971</v>
       </c>
       <c r="T10">
-        <v>1.000535652726296</v>
+        <v>0.980605809455021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.018844933777805</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="D11">
-        <v>0.9846254240270744</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="E11">
-        <v>1.018844933777805</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="F11">
-        <v>1.022502055393421</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="G11">
-        <v>1.015244989005219</v>
+        <v>1.025442750520016</v>
       </c>
       <c r="H11">
-        <v>0.9774725197046196</v>
+        <v>0.9569176443261654</v>
       </c>
       <c r="I11">
-        <v>1.022502055393421</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="J11">
-        <v>0.9870989492018327</v>
+        <v>0.9890122770396376</v>
       </c>
       <c r="K11">
-        <v>1.022502055393421</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="L11">
-        <v>0.9846254240270744</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="M11">
-        <v>1.00173517890244</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="N11">
-        <v>1.00173517890244</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="O11">
-        <v>1.0062384489367</v>
+        <v>1.008961493585822</v>
       </c>
       <c r="P11">
-        <v>1.0086574710661</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="Q11">
-        <v>1.0086574710661</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="R11">
-        <v>1.012118617147931</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="S11">
-        <v>1.012118617147931</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="T11">
-        <v>1.000964811851662</v>
+        <v>0.9959887594939262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4250440291123704</v>
+        <v>1.007907088777324</v>
       </c>
       <c r="D12">
-        <v>0.8591386488652993</v>
+        <v>0.9909659036751384</v>
       </c>
       <c r="E12">
-        <v>0.4250440291123704</v>
+        <v>1.007907088777324</v>
       </c>
       <c r="F12">
-        <v>1.684950839951145</v>
+        <v>1.002740467048666</v>
       </c>
       <c r="G12">
-        <v>0.8876723907577301</v>
+        <v>1.009652755942075</v>
       </c>
       <c r="H12">
-        <v>0.3319920355424585</v>
+        <v>0.9855001394123136</v>
       </c>
       <c r="I12">
-        <v>1.684950839951145</v>
+        <v>1.002740467048666</v>
       </c>
       <c r="J12">
-        <v>1.096048518425797</v>
+        <v>0.9946723824909665</v>
       </c>
       <c r="K12">
-        <v>1.684950839951145</v>
+        <v>1.002740467048666</v>
       </c>
       <c r="L12">
-        <v>0.8591386488652993</v>
+        <v>0.9909659036751384</v>
       </c>
       <c r="M12">
-        <v>0.6420913389888349</v>
+        <v>0.999436496226231</v>
       </c>
       <c r="N12">
-        <v>0.6420913389888349</v>
+        <v>0.999436496226231</v>
       </c>
       <c r="O12">
-        <v>0.7239516895784667</v>
+        <v>1.002841916131512</v>
       </c>
       <c r="P12">
-        <v>0.9897111726429383</v>
+        <v>1.000537819833709</v>
       </c>
       <c r="Q12">
-        <v>0.9897111726429383</v>
+        <v>1.000537819833709</v>
       </c>
       <c r="R12">
-        <v>1.16352108946999</v>
+        <v>1.001088481637448</v>
       </c>
       <c r="S12">
-        <v>1.16352108946999</v>
+        <v>1.001088481637448</v>
       </c>
       <c r="T12">
-        <v>0.8808077437758001</v>
+        <v>0.9985731228910805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.160934499794196</v>
+        <v>1.025885788808066</v>
       </c>
       <c r="D13">
-        <v>1.074534427691004</v>
+        <v>0.9673046637014657</v>
       </c>
       <c r="E13">
-        <v>1.160934499794196</v>
+        <v>1.025885788808066</v>
       </c>
       <c r="F13">
-        <v>0.7318912868663987</v>
+        <v>1.010312900190386</v>
       </c>
       <c r="G13">
-        <v>1.007927712914645</v>
+        <v>1.027570915376257</v>
       </c>
       <c r="H13">
-        <v>1.395607564995098</v>
+        <v>0.947429621883804</v>
       </c>
       <c r="I13">
-        <v>0.7318912868663987</v>
+        <v>1.010312900190386</v>
       </c>
       <c r="J13">
-        <v>0.9891341126136234</v>
+        <v>0.9842994915946033</v>
       </c>
       <c r="K13">
-        <v>0.7318912868663987</v>
+        <v>1.010312900190386</v>
       </c>
       <c r="L13">
-        <v>1.074534427691004</v>
+        <v>0.9673046637014657</v>
       </c>
       <c r="M13">
-        <v>1.1177344637426</v>
+        <v>0.9965952262547657</v>
       </c>
       <c r="N13">
-        <v>1.1177344637426</v>
+        <v>0.9965952262547657</v>
       </c>
       <c r="O13">
-        <v>1.081132213466615</v>
+        <v>1.006920455961929</v>
       </c>
       <c r="P13">
-        <v>0.9891200714505328</v>
+        <v>1.001167784233306</v>
       </c>
       <c r="Q13">
-        <v>0.9891200714505328</v>
+        <v>1.001167784233306</v>
       </c>
       <c r="R13">
-        <v>0.9248128753044993</v>
+        <v>1.003454063222576</v>
       </c>
       <c r="S13">
-        <v>0.9248128753044993</v>
+        <v>1.003454063222576</v>
       </c>
       <c r="T13">
-        <v>1.060004934145828</v>
+        <v>0.9938005635924303</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.292413382746126</v>
+        <v>1.064427579105363</v>
       </c>
       <c r="D14">
-        <v>1.358926550681507</v>
+        <v>0.9500043793676476</v>
       </c>
       <c r="E14">
-        <v>1.292413382746126</v>
+        <v>1.064427579105363</v>
       </c>
       <c r="F14">
-        <v>0.1239783455285956</v>
+        <v>1.007656813733856</v>
       </c>
       <c r="G14">
-        <v>1.049211098525847</v>
+        <v>1.066665531572037</v>
       </c>
       <c r="H14">
-        <v>2.065664994173343</v>
+        <v>0.8967927661076963</v>
       </c>
       <c r="I14">
-        <v>0.1239783455285956</v>
+        <v>1.007656813733856</v>
       </c>
       <c r="J14">
-        <v>0.9629233818555961</v>
+        <v>0.9678587322618684</v>
       </c>
       <c r="K14">
-        <v>0.1239783455285956</v>
+        <v>1.007656813733856</v>
       </c>
       <c r="L14">
-        <v>1.358926550681507</v>
+        <v>0.9500043793676476</v>
       </c>
       <c r="M14">
-        <v>1.325669966713817</v>
+        <v>1.007215979236505</v>
       </c>
       <c r="N14">
-        <v>1.325669966713817</v>
+        <v>1.007215979236505</v>
       </c>
       <c r="O14">
-        <v>1.23351701065116</v>
+        <v>1.027032496681682</v>
       </c>
       <c r="P14">
-        <v>0.9251060929854096</v>
+        <v>1.007362924068955</v>
       </c>
       <c r="Q14">
-        <v>0.9251060929854096</v>
+        <v>1.007362924068955</v>
       </c>
       <c r="R14">
-        <v>0.7248241561212061</v>
+        <v>1.007436396485181</v>
       </c>
       <c r="S14">
-        <v>0.7248241561212061</v>
+        <v>1.007436396485181</v>
       </c>
       <c r="T14">
-        <v>1.142186292251836</v>
+        <v>0.9922343003580781</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9076313267717879</v>
+        <v>1.021434299295901</v>
       </c>
       <c r="D15">
-        <v>0.9679326571662478</v>
+        <v>0.9824365719561021</v>
       </c>
       <c r="E15">
-        <v>0.9076313267717879</v>
+        <v>1.021434299295901</v>
       </c>
       <c r="F15">
-        <v>1.348066131739176</v>
+        <v>1.002973143312484</v>
       </c>
       <c r="G15">
-        <v>0.7402963108679964</v>
+        <v>1.022941055945873</v>
       </c>
       <c r="H15">
-        <v>0.4417138885944184</v>
+        <v>0.9616674664251792</v>
       </c>
       <c r="I15">
-        <v>1.348066131739176</v>
+        <v>1.002973143312484</v>
       </c>
       <c r="J15">
-        <v>1.152414154630152</v>
+        <v>0.9876791418760358</v>
       </c>
       <c r="K15">
-        <v>1.348066131739176</v>
+        <v>1.002973143312484</v>
       </c>
       <c r="L15">
-        <v>0.9679326571662478</v>
+        <v>0.9824365719561021</v>
       </c>
       <c r="M15">
-        <v>0.9377819919690178</v>
+        <v>1.001935435626002</v>
       </c>
       <c r="N15">
-        <v>0.9377819919690178</v>
+        <v>1.001935435626002</v>
       </c>
       <c r="O15">
-        <v>0.8719534316020107</v>
+        <v>1.008937309065959</v>
       </c>
       <c r="P15">
-        <v>1.074543371892404</v>
+        <v>1.002281338188162</v>
       </c>
       <c r="Q15">
-        <v>1.074543371892404</v>
+        <v>1.002281338188162</v>
       </c>
       <c r="R15">
-        <v>1.142924061854097</v>
+        <v>1.002454289469243</v>
       </c>
       <c r="S15">
-        <v>1.142924061854097</v>
+        <v>1.002454289469243</v>
       </c>
       <c r="T15">
-        <v>0.9263424116282964</v>
+        <v>0.9965219464685958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.501481034952846</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="D16">
-        <v>0.6833337796338715</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="E16">
-        <v>1.501481034952846</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="F16">
-        <v>1.015652019457369</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="G16">
-        <v>1.446567350948894</v>
+        <v>1.044291473889115</v>
       </c>
       <c r="H16">
-        <v>0.2792033147205248</v>
+        <v>0.9272303576818324</v>
       </c>
       <c r="I16">
-        <v>1.015652019457369</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="J16">
-        <v>0.7688982784879141</v>
+        <v>0.976632963253919</v>
       </c>
       <c r="K16">
-        <v>1.015652019457369</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="L16">
-        <v>0.6833337796338715</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="M16">
-        <v>1.092407407293359</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="N16">
-        <v>1.092407407293359</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="O16">
-        <v>1.210460721845204</v>
+        <v>1.017387615601282</v>
       </c>
       <c r="P16">
-        <v>1.066822278014696</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="Q16">
-        <v>1.066822278014695</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="R16">
-        <v>1.054029713375364</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="S16">
-        <v>1.054029713375364</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="T16">
-        <v>0.9491892963669031</v>
+        <v>0.9938089826895576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.454187943889153</v>
+        <v>1.063186508789189</v>
       </c>
       <c r="D17">
-        <v>0.7582490418591961</v>
+        <v>0.9331435714195726</v>
       </c>
       <c r="E17">
-        <v>1.454187943889153</v>
+        <v>1.063186508789189</v>
       </c>
       <c r="F17">
-        <v>0.9644751210879677</v>
+        <v>1.015344335113946</v>
       </c>
       <c r="G17">
-        <v>1.367991076700969</v>
+        <v>1.079663307343284</v>
       </c>
       <c r="H17">
-        <v>0.4578990736512996</v>
+        <v>0.8662424345817928</v>
       </c>
       <c r="I17">
-        <v>0.9644751210879677</v>
+        <v>1.015344335113946</v>
       </c>
       <c r="J17">
-        <v>0.8085079568598957</v>
+        <v>0.9583109796846283</v>
       </c>
       <c r="K17">
-        <v>0.9644751210879677</v>
+        <v>1.015344335113946</v>
       </c>
       <c r="L17">
-        <v>0.7582490418591961</v>
+        <v>0.9331435714195726</v>
       </c>
       <c r="M17">
-        <v>1.106218492874174</v>
+        <v>0.9981650401043808</v>
       </c>
       <c r="N17">
-        <v>1.106218492874174</v>
+        <v>0.9981650401043808</v>
       </c>
       <c r="O17">
-        <v>1.193476020816439</v>
+        <v>1.025331129184015</v>
       </c>
       <c r="P17">
-        <v>1.058970702278772</v>
+        <v>1.003891471774236</v>
       </c>
       <c r="Q17">
-        <v>1.058970702278772</v>
+        <v>1.003891471774236</v>
       </c>
       <c r="R17">
-        <v>1.035346806981071</v>
+        <v>1.006754687609164</v>
       </c>
       <c r="S17">
-        <v>1.035346806981071</v>
+        <v>1.006754687609164</v>
       </c>
       <c r="T17">
-        <v>0.9685517023414135</v>
+        <v>0.985981856155402</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.357340383054027</v>
+        <v>1.040227874964162</v>
       </c>
       <c r="D18">
-        <v>0.9079076046495694</v>
+        <v>0.8838866613742508</v>
       </c>
       <c r="E18">
-        <v>1.357340383054027</v>
+        <v>1.040227874964162</v>
       </c>
       <c r="F18">
-        <v>0.8675408205378258</v>
+        <v>1.015377451906047</v>
       </c>
       <c r="G18">
-        <v>1.20924268530496</v>
+        <v>1.119080811087596</v>
       </c>
       <c r="H18">
-        <v>0.8147294438183833</v>
+        <v>0.7841573251638898</v>
       </c>
       <c r="I18">
-        <v>0.8675408205378258</v>
+        <v>1.015377451906047</v>
       </c>
       <c r="J18">
-        <v>0.8883075165210789</v>
+        <v>0.9374191158452037</v>
       </c>
       <c r="K18">
-        <v>0.8675408205378258</v>
+        <v>1.015377451906047</v>
       </c>
       <c r="L18">
-        <v>0.9079076046495694</v>
+        <v>0.8838866613742508</v>
       </c>
       <c r="M18">
-        <v>1.132623993851798</v>
+        <v>0.9620572681692066</v>
       </c>
       <c r="N18">
-        <v>1.132623993851798</v>
+        <v>0.9620572681692066</v>
       </c>
       <c r="O18">
-        <v>1.158163557669519</v>
+        <v>1.014398449142003</v>
       </c>
       <c r="P18">
-        <v>1.044262936080474</v>
+        <v>0.9798306627481534</v>
       </c>
       <c r="Q18">
-        <v>1.044262936080474</v>
+        <v>0.9798306627481536</v>
       </c>
       <c r="R18">
-        <v>1.000082407194812</v>
+        <v>0.988717360037627</v>
       </c>
       <c r="S18">
-        <v>1.000082407194812</v>
+        <v>0.988717360037627</v>
       </c>
       <c r="T18">
-        <v>1.007511408980974</v>
+        <v>0.963358206723525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.381927468283941</v>
+        <v>1.001973978537138</v>
       </c>
       <c r="D19">
-        <v>0.9066321755490511</v>
+        <v>0.9991204829049929</v>
       </c>
       <c r="E19">
-        <v>1.381927468283941</v>
+        <v>1.001973978537138</v>
       </c>
       <c r="F19">
-        <v>0.8274303748367912</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="G19">
-        <v>1.22800523376143</v>
+        <v>1.001313338993374</v>
       </c>
       <c r="H19">
-        <v>0.8370030601829055</v>
+        <v>0.9987787416763926</v>
       </c>
       <c r="I19">
-        <v>0.8274303748367912</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="J19">
-        <v>0.8735184047063063</v>
+        <v>0.9989811547594752</v>
       </c>
       <c r="K19">
-        <v>0.8274303748367912</v>
+        <v>0.9999377608822174</v>
       </c>
       <c r="L19">
-        <v>0.9066321755490511</v>
+        <v>0.9991204829049929</v>
       </c>
       <c r="M19">
-        <v>1.144279821916496</v>
+        <v>1.000547230721066</v>
       </c>
       <c r="N19">
-        <v>1.144279821916496</v>
+        <v>1.000547230721066</v>
       </c>
       <c r="O19">
-        <v>1.172188292531474</v>
+        <v>1.000802600145168</v>
       </c>
       <c r="P19">
-        <v>1.038663339556594</v>
+        <v>1.000344074108116</v>
       </c>
       <c r="Q19">
-        <v>1.038663339556594</v>
+        <v>1.000344074108116</v>
       </c>
       <c r="R19">
-        <v>0.9858550983766435</v>
+        <v>1.000242495801642</v>
       </c>
       <c r="S19">
-        <v>0.9858550983766435</v>
+        <v>1.000242495801642</v>
       </c>
       <c r="T19">
-        <v>1.009086119553404</v>
+        <v>1.000017576292265</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9998804949864696</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="D20">
-        <v>0.999608780873287</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="E20">
-        <v>0.9998804949864696</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="F20">
-        <v>0.9965400788789707</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="G20">
-        <v>1.001077261245199</v>
+        <v>1.003071695510013</v>
       </c>
       <c r="H20">
-        <v>1.001480433168281</v>
+        <v>0.9978146496435741</v>
       </c>
       <c r="I20">
-        <v>0.9965400788789707</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="J20">
-        <v>1.000046509354893</v>
+        <v>0.9973199567496976</v>
       </c>
       <c r="K20">
-        <v>0.9965400788789707</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="L20">
-        <v>0.999608780873287</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="M20">
-        <v>0.9997446379298782</v>
+        <v>1.00110798360873</v>
       </c>
       <c r="N20">
-        <v>0.9997446379298782</v>
+        <v>1.00110798360873</v>
       </c>
       <c r="O20">
-        <v>1.000188845701652</v>
+        <v>1.001762554242491</v>
       </c>
       <c r="P20">
-        <v>0.9986764515795757</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="Q20">
-        <v>0.9986764515795757</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="R20">
-        <v>0.9981423584044244</v>
+        <v>1.001558649606841</v>
       </c>
       <c r="S20">
-        <v>0.9981423584044244</v>
+        <v>1.001558649606841</v>
       </c>
       <c r="T20">
-        <v>0.9997722597511834</v>
+        <v>1.00040526412095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.003557894398805</v>
+        <v>1.006999285088237</v>
       </c>
       <c r="D21">
-        <v>1.000101366946312</v>
+        <v>0.9964983857400731</v>
       </c>
       <c r="E21">
-        <v>1.003557894398805</v>
+        <v>1.006999285088237</v>
       </c>
       <c r="F21">
-        <v>1.006198067725391</v>
+        <v>1.004867929824731</v>
       </c>
       <c r="G21">
-        <v>0.9998961461460112</v>
+        <v>1.00399037780091</v>
       </c>
       <c r="H21">
-        <v>0.9980639352427068</v>
+        <v>0.9941991366036124</v>
       </c>
       <c r="I21">
-        <v>1.006198067725391</v>
+        <v>1.004867929824731</v>
       </c>
       <c r="J21">
-        <v>0.9979393640849364</v>
+        <v>0.9966832014218237</v>
       </c>
       <c r="K21">
-        <v>1.006198067725391</v>
+        <v>1.004867929824731</v>
       </c>
       <c r="L21">
-        <v>1.000101366946312</v>
+        <v>0.9964983857400731</v>
       </c>
       <c r="M21">
-        <v>1.001829630672559</v>
+        <v>1.001748835414155</v>
       </c>
       <c r="N21">
-        <v>1.001829630672559</v>
+        <v>1.001748835414155</v>
       </c>
       <c r="O21">
-        <v>1.001185135830376</v>
+        <v>1.00249601620974</v>
       </c>
       <c r="P21">
-        <v>1.003285776356836</v>
+        <v>1.002788533551014</v>
       </c>
       <c r="Q21">
-        <v>1.003285776356836</v>
+        <v>1.002788533551014</v>
       </c>
       <c r="R21">
-        <v>1.004013849198975</v>
+        <v>1.003308382619443</v>
       </c>
       <c r="S21">
-        <v>1.004013849198975</v>
+        <v>1.003308382619443</v>
       </c>
       <c r="T21">
-        <v>1.000959462424027</v>
+        <v>1.000539719413231</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9961005522299859</v>
+        <v>1.013163220912</v>
       </c>
       <c r="D22">
-        <v>0.9886882570148895</v>
+        <v>0.9927533543327617</v>
       </c>
       <c r="E22">
-        <v>0.9961005522299859</v>
+        <v>1.013163220912</v>
       </c>
       <c r="F22">
-        <v>0.9983025353370873</v>
+        <v>1.007322118391491</v>
       </c>
       <c r="G22">
-        <v>1.010430123942148</v>
+        <v>1.008409837416527</v>
       </c>
       <c r="H22">
-        <v>0.990225137183199</v>
+        <v>0.9889934033519625</v>
       </c>
       <c r="I22">
-        <v>0.9983025353370873</v>
+        <v>1.007322118391491</v>
       </c>
       <c r="J22">
-        <v>0.9959715009486297</v>
+        <v>0.9925719819530319</v>
       </c>
       <c r="K22">
-        <v>0.9983025353370873</v>
+        <v>1.007322118391491</v>
       </c>
       <c r="L22">
-        <v>0.9886882570148895</v>
+        <v>0.9927533543327617</v>
       </c>
       <c r="M22">
-        <v>0.9923944046224378</v>
+        <v>1.002958287622381</v>
       </c>
       <c r="N22">
-        <v>0.9923944046224378</v>
+        <v>1.002958287622381</v>
       </c>
       <c r="O22">
-        <v>0.998406311062341</v>
+        <v>1.004775470887096</v>
       </c>
       <c r="P22">
-        <v>0.994363781527321</v>
+        <v>1.004412897878751</v>
       </c>
       <c r="Q22">
-        <v>0.994363781527321</v>
+        <v>1.004412897878751</v>
       </c>
       <c r="R22">
-        <v>0.9953484699797626</v>
+        <v>1.005140203006936</v>
       </c>
       <c r="S22">
-        <v>0.9953484699797626</v>
+        <v>1.005140203006936</v>
       </c>
       <c r="T22">
-        <v>0.9966196844426566</v>
+        <v>1.000535652726296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.018844933777805</v>
+      </c>
+      <c r="D23">
+        <v>0.9846254240270744</v>
+      </c>
+      <c r="E23">
+        <v>1.018844933777805</v>
+      </c>
+      <c r="F23">
+        <v>1.022502055393421</v>
+      </c>
+      <c r="G23">
+        <v>1.015244989005219</v>
+      </c>
+      <c r="H23">
+        <v>0.9774725197046196</v>
+      </c>
+      <c r="I23">
+        <v>1.022502055393421</v>
+      </c>
+      <c r="J23">
+        <v>0.9870989492018327</v>
+      </c>
+      <c r="K23">
+        <v>1.022502055393421</v>
+      </c>
+      <c r="L23">
+        <v>0.9846254240270744</v>
+      </c>
+      <c r="M23">
+        <v>1.00173517890244</v>
+      </c>
+      <c r="N23">
+        <v>1.00173517890244</v>
+      </c>
+      <c r="O23">
+        <v>1.0062384489367</v>
+      </c>
+      <c r="P23">
+        <v>1.0086574710661</v>
+      </c>
+      <c r="Q23">
+        <v>1.0086574710661</v>
+      </c>
+      <c r="R23">
+        <v>1.012118617147931</v>
+      </c>
+      <c r="S23">
+        <v>1.012118617147931</v>
+      </c>
+      <c r="T23">
+        <v>1.000964811851662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4250440291123704</v>
+      </c>
+      <c r="D24">
+        <v>0.8591386488652993</v>
+      </c>
+      <c r="E24">
+        <v>0.4250440291123704</v>
+      </c>
+      <c r="F24">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="G24">
+        <v>0.8876723907577301</v>
+      </c>
+      <c r="H24">
+        <v>0.3319920355424585</v>
+      </c>
+      <c r="I24">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="J24">
+        <v>1.096048518425797</v>
+      </c>
+      <c r="K24">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="L24">
+        <v>0.8591386488652993</v>
+      </c>
+      <c r="M24">
+        <v>0.6420913389888349</v>
+      </c>
+      <c r="N24">
+        <v>0.6420913389888349</v>
+      </c>
+      <c r="O24">
+        <v>0.7239516895784667</v>
+      </c>
+      <c r="P24">
+        <v>0.9897111726429383</v>
+      </c>
+      <c r="Q24">
+        <v>0.9897111726429383</v>
+      </c>
+      <c r="R24">
+        <v>1.16352108946999</v>
+      </c>
+      <c r="S24">
+        <v>1.16352108946999</v>
+      </c>
+      <c r="T24">
+        <v>0.8808077437758001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.160934499794196</v>
+      </c>
+      <c r="D25">
+        <v>1.074534427691004</v>
+      </c>
+      <c r="E25">
+        <v>1.160934499794196</v>
+      </c>
+      <c r="F25">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="G25">
+        <v>1.007927712914645</v>
+      </c>
+      <c r="H25">
+        <v>1.395607564995098</v>
+      </c>
+      <c r="I25">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="J25">
+        <v>0.9891341126136234</v>
+      </c>
+      <c r="K25">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="L25">
+        <v>1.074534427691004</v>
+      </c>
+      <c r="M25">
+        <v>1.1177344637426</v>
+      </c>
+      <c r="N25">
+        <v>1.1177344637426</v>
+      </c>
+      <c r="O25">
+        <v>1.081132213466615</v>
+      </c>
+      <c r="P25">
+        <v>0.9891200714505328</v>
+      </c>
+      <c r="Q25">
+        <v>0.9891200714505328</v>
+      </c>
+      <c r="R25">
+        <v>0.9248128753044993</v>
+      </c>
+      <c r="S25">
+        <v>0.9248128753044993</v>
+      </c>
+      <c r="T25">
+        <v>1.060004934145828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.292413382746126</v>
+      </c>
+      <c r="D26">
+        <v>1.358926550681507</v>
+      </c>
+      <c r="E26">
+        <v>1.292413382746126</v>
+      </c>
+      <c r="F26">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="G26">
+        <v>1.049211098525847</v>
+      </c>
+      <c r="H26">
+        <v>2.065664994173343</v>
+      </c>
+      <c r="I26">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="J26">
+        <v>0.9629233818555961</v>
+      </c>
+      <c r="K26">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="L26">
+        <v>1.358926550681507</v>
+      </c>
+      <c r="M26">
+        <v>1.325669966713817</v>
+      </c>
+      <c r="N26">
+        <v>1.325669966713817</v>
+      </c>
+      <c r="O26">
+        <v>1.23351701065116</v>
+      </c>
+      <c r="P26">
+        <v>0.9251060929854096</v>
+      </c>
+      <c r="Q26">
+        <v>0.9251060929854096</v>
+      </c>
+      <c r="R26">
+        <v>0.7248241561212061</v>
+      </c>
+      <c r="S26">
+        <v>0.7248241561212061</v>
+      </c>
+      <c r="T26">
+        <v>1.142186292251836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9076313267717879</v>
+      </c>
+      <c r="D27">
+        <v>0.9679326571662478</v>
+      </c>
+      <c r="E27">
+        <v>0.9076313267717879</v>
+      </c>
+      <c r="F27">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="G27">
+        <v>0.7402963108679964</v>
+      </c>
+      <c r="H27">
+        <v>0.4417138885944184</v>
+      </c>
+      <c r="I27">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="J27">
+        <v>1.152414154630152</v>
+      </c>
+      <c r="K27">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="L27">
+        <v>0.9679326571662478</v>
+      </c>
+      <c r="M27">
+        <v>0.9377819919690178</v>
+      </c>
+      <c r="N27">
+        <v>0.9377819919690178</v>
+      </c>
+      <c r="O27">
+        <v>0.8719534316020107</v>
+      </c>
+      <c r="P27">
+        <v>1.074543371892404</v>
+      </c>
+      <c r="Q27">
+        <v>1.074543371892404</v>
+      </c>
+      <c r="R27">
+        <v>1.142924061854097</v>
+      </c>
+      <c r="S27">
+        <v>1.142924061854097</v>
+      </c>
+      <c r="T27">
+        <v>0.9263424116282964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.501481034952846</v>
+      </c>
+      <c r="D28">
+        <v>0.6833337796338715</v>
+      </c>
+      <c r="E28">
+        <v>1.501481034952846</v>
+      </c>
+      <c r="F28">
+        <v>1.015652019457369</v>
+      </c>
+      <c r="G28">
+        <v>1.446567350948894</v>
+      </c>
+      <c r="H28">
+        <v>0.2792033147205248</v>
+      </c>
+      <c r="I28">
+        <v>1.015652019457369</v>
+      </c>
+      <c r="J28">
+        <v>0.7688982784879141</v>
+      </c>
+      <c r="K28">
+        <v>1.015652019457369</v>
+      </c>
+      <c r="L28">
+        <v>0.6833337796338715</v>
+      </c>
+      <c r="M28">
+        <v>1.092407407293359</v>
+      </c>
+      <c r="N28">
+        <v>1.092407407293359</v>
+      </c>
+      <c r="O28">
+        <v>1.210460721845204</v>
+      </c>
+      <c r="P28">
+        <v>1.066822278014696</v>
+      </c>
+      <c r="Q28">
+        <v>1.066822278014695</v>
+      </c>
+      <c r="R28">
+        <v>1.054029713375364</v>
+      </c>
+      <c r="S28">
+        <v>1.054029713375364</v>
+      </c>
+      <c r="T28">
+        <v>0.9491892963669031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.454187943889153</v>
+      </c>
+      <c r="D29">
+        <v>0.7582490418591961</v>
+      </c>
+      <c r="E29">
+        <v>1.454187943889153</v>
+      </c>
+      <c r="F29">
+        <v>0.9644751210879677</v>
+      </c>
+      <c r="G29">
+        <v>1.367991076700969</v>
+      </c>
+      <c r="H29">
+        <v>0.4578990736512996</v>
+      </c>
+      <c r="I29">
+        <v>0.9644751210879677</v>
+      </c>
+      <c r="J29">
+        <v>0.8085079568598957</v>
+      </c>
+      <c r="K29">
+        <v>0.9644751210879677</v>
+      </c>
+      <c r="L29">
+        <v>0.7582490418591961</v>
+      </c>
+      <c r="M29">
+        <v>1.106218492874174</v>
+      </c>
+      <c r="N29">
+        <v>1.106218492874174</v>
+      </c>
+      <c r="O29">
+        <v>1.193476020816439</v>
+      </c>
+      <c r="P29">
+        <v>1.058970702278772</v>
+      </c>
+      <c r="Q29">
+        <v>1.058970702278772</v>
+      </c>
+      <c r="R29">
+        <v>1.035346806981071</v>
+      </c>
+      <c r="S29">
+        <v>1.035346806981071</v>
+      </c>
+      <c r="T29">
+        <v>0.9685517023414135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.357340383054027</v>
+      </c>
+      <c r="D30">
+        <v>0.9079076046495694</v>
+      </c>
+      <c r="E30">
+        <v>1.357340383054027</v>
+      </c>
+      <c r="F30">
+        <v>0.8675408205378258</v>
+      </c>
+      <c r="G30">
+        <v>1.20924268530496</v>
+      </c>
+      <c r="H30">
+        <v>0.8147294438183833</v>
+      </c>
+      <c r="I30">
+        <v>0.8675408205378258</v>
+      </c>
+      <c r="J30">
+        <v>0.8883075165210789</v>
+      </c>
+      <c r="K30">
+        <v>0.8675408205378258</v>
+      </c>
+      <c r="L30">
+        <v>0.9079076046495694</v>
+      </c>
+      <c r="M30">
+        <v>1.132623993851798</v>
+      </c>
+      <c r="N30">
+        <v>1.132623993851798</v>
+      </c>
+      <c r="O30">
+        <v>1.158163557669519</v>
+      </c>
+      <c r="P30">
+        <v>1.044262936080474</v>
+      </c>
+      <c r="Q30">
+        <v>1.044262936080474</v>
+      </c>
+      <c r="R30">
+        <v>1.000082407194812</v>
+      </c>
+      <c r="S30">
+        <v>1.000082407194812</v>
+      </c>
+      <c r="T30">
+        <v>1.007511408980974</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.381927468283941</v>
+      </c>
+      <c r="D31">
+        <v>0.9066321755490511</v>
+      </c>
+      <c r="E31">
+        <v>1.381927468283941</v>
+      </c>
+      <c r="F31">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="G31">
+        <v>1.22800523376143</v>
+      </c>
+      <c r="H31">
+        <v>0.8370030601829055</v>
+      </c>
+      <c r="I31">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="J31">
+        <v>0.8735184047063063</v>
+      </c>
+      <c r="K31">
+        <v>0.8274303748367912</v>
+      </c>
+      <c r="L31">
+        <v>0.9066321755490511</v>
+      </c>
+      <c r="M31">
+        <v>1.144279821916496</v>
+      </c>
+      <c r="N31">
+        <v>1.144279821916496</v>
+      </c>
+      <c r="O31">
+        <v>1.172188292531474</v>
+      </c>
+      <c r="P31">
+        <v>1.038663339556594</v>
+      </c>
+      <c r="Q31">
+        <v>1.038663339556594</v>
+      </c>
+      <c r="R31">
+        <v>0.9858550983766435</v>
+      </c>
+      <c r="S31">
+        <v>0.9858550983766435</v>
+      </c>
+      <c r="T31">
+        <v>1.009086119553404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.528042737821095</v>
+      </c>
+      <c r="D32">
+        <v>0.5999787024520546</v>
+      </c>
+      <c r="E32">
+        <v>1.528042737821095</v>
+      </c>
+      <c r="F32">
+        <v>1.157835500361644</v>
+      </c>
+      <c r="G32">
+        <v>1.505378713315068</v>
+      </c>
+      <c r="H32">
+        <v>0.09875237202630137</v>
+      </c>
+      <c r="I32">
+        <v>1.157835500361644</v>
+      </c>
+      <c r="J32">
+        <v>0.727110376410959</v>
+      </c>
+      <c r="K32">
+        <v>1.157835500361644</v>
+      </c>
+      <c r="L32">
+        <v>0.5999787024520546</v>
+      </c>
+      <c r="M32">
+        <v>1.064010720136575</v>
+      </c>
+      <c r="N32">
+        <v>1.064010720136575</v>
+      </c>
+      <c r="O32">
+        <v>1.211133384529406</v>
+      </c>
+      <c r="P32">
+        <v>1.095285646878265</v>
+      </c>
+      <c r="Q32">
+        <v>1.095285646878265</v>
+      </c>
+      <c r="R32">
+        <v>1.11092311024911</v>
+      </c>
+      <c r="S32">
+        <v>1.11092311024911</v>
+      </c>
+      <c r="T32">
+        <v>0.9361830670645204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.786339383717948</v>
+      </c>
+      <c r="D33">
+        <v>1.125884597368421</v>
+      </c>
+      <c r="E33">
+        <v>1.786339383717948</v>
+      </c>
+      <c r="F33">
+        <v>0.9001107151</v>
+      </c>
+      <c r="G33">
+        <v>0.6090701729000001</v>
+      </c>
+      <c r="H33">
+        <v>2.593467654847368</v>
+      </c>
+      <c r="I33">
+        <v>0.9001107151</v>
+      </c>
+      <c r="J33">
+        <v>0.8330570915789475</v>
+      </c>
+      <c r="K33">
+        <v>0.9001107151</v>
+      </c>
+      <c r="L33">
+        <v>1.125884597368421</v>
+      </c>
+      <c r="M33">
+        <v>1.456111990543185</v>
+      </c>
+      <c r="N33">
+        <v>1.456111990543185</v>
+      </c>
+      <c r="O33">
+        <v>1.173764717995456</v>
+      </c>
+      <c r="P33">
+        <v>1.270778232062123</v>
+      </c>
+      <c r="Q33">
+        <v>1.270778232062123</v>
+      </c>
+      <c r="R33">
+        <v>1.178111352821592</v>
+      </c>
+      <c r="S33">
+        <v>1.178111352821592</v>
+      </c>
+      <c r="T33">
+        <v>1.307988269252114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.3774388321684213</v>
+      </c>
+      <c r="D34">
+        <v>0.7916009230526316</v>
+      </c>
+      <c r="E34">
+        <v>0.3774388321684213</v>
+      </c>
+      <c r="F34">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="G34">
+        <v>0.8976872849000003</v>
+      </c>
+      <c r="H34">
+        <v>1.464827346900526</v>
+      </c>
+      <c r="I34">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="J34">
+        <v>1.045472898947369</v>
+      </c>
+      <c r="K34">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="L34">
+        <v>0.7916009230526316</v>
+      </c>
+      <c r="M34">
+        <v>0.5845198776105265</v>
+      </c>
+      <c r="N34">
+        <v>0.5845198776105265</v>
+      </c>
+      <c r="O34">
+        <v>0.6889090133736845</v>
+      </c>
+      <c r="P34">
+        <v>0.8244288304210526</v>
+      </c>
+      <c r="Q34">
+        <v>0.8244288304210526</v>
+      </c>
+      <c r="R34">
+        <v>0.9443833068263159</v>
+      </c>
+      <c r="S34">
+        <v>0.9443833068263159</v>
+      </c>
+      <c r="T34">
+        <v>0.9802123370018422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>2.031879575501537</v>
+      </c>
+      <c r="D35">
+        <v>0.5934728659446126</v>
+      </c>
+      <c r="E35">
+        <v>2.031879575501537</v>
+      </c>
+      <c r="F35">
+        <v>0.4306894589685569</v>
+      </c>
+      <c r="G35">
+        <v>1.757767570601517</v>
+      </c>
+      <c r="H35">
+        <v>0.4095578471511122</v>
+      </c>
+      <c r="I35">
+        <v>0.4306894589685569</v>
+      </c>
+      <c r="J35">
+        <v>0.5078943063843687</v>
+      </c>
+      <c r="K35">
+        <v>0.4306894589685569</v>
+      </c>
+      <c r="L35">
+        <v>0.5934728659446126</v>
+      </c>
+      <c r="M35">
+        <v>1.312676220723075</v>
+      </c>
+      <c r="N35">
+        <v>1.312676220723075</v>
+      </c>
+      <c r="O35">
+        <v>1.461040004015889</v>
+      </c>
+      <c r="P35">
+        <v>1.018680633471569</v>
+      </c>
+      <c r="Q35">
+        <v>1.018680633471569</v>
+      </c>
+      <c r="R35">
+        <v>0.871682839845816</v>
+      </c>
+      <c r="S35">
+        <v>0.871682839845816</v>
+      </c>
+      <c r="T35">
+        <v>0.9552102707586175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9998804949864696</v>
+      </c>
+      <c r="D36">
+        <v>0.999608780873287</v>
+      </c>
+      <c r="E36">
+        <v>0.9998804949864696</v>
+      </c>
+      <c r="F36">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="G36">
+        <v>1.001077261245199</v>
+      </c>
+      <c r="H36">
+        <v>1.001480433168281</v>
+      </c>
+      <c r="I36">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="J36">
+        <v>1.000046509354893</v>
+      </c>
+      <c r="K36">
+        <v>0.9965400788789707</v>
+      </c>
+      <c r="L36">
+        <v>0.999608780873287</v>
+      </c>
+      <c r="M36">
+        <v>0.9997446379298782</v>
+      </c>
+      <c r="N36">
+        <v>0.9997446379298782</v>
+      </c>
+      <c r="O36">
+        <v>1.000188845701652</v>
+      </c>
+      <c r="P36">
+        <v>0.9986764515795757</v>
+      </c>
+      <c r="Q36">
+        <v>0.9986764515795757</v>
+      </c>
+      <c r="R36">
+        <v>0.9981423584044244</v>
+      </c>
+      <c r="S36">
+        <v>0.9981423584044244</v>
+      </c>
+      <c r="T36">
+        <v>0.9997722597511834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.003557894398805</v>
+      </c>
+      <c r="D37">
+        <v>1.000101366946312</v>
+      </c>
+      <c r="E37">
+        <v>1.003557894398805</v>
+      </c>
+      <c r="F37">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="G37">
+        <v>0.9998961461460112</v>
+      </c>
+      <c r="H37">
+        <v>0.9980639352427068</v>
+      </c>
+      <c r="I37">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="J37">
+        <v>0.9979393640849364</v>
+      </c>
+      <c r="K37">
+        <v>1.006198067725391</v>
+      </c>
+      <c r="L37">
+        <v>1.000101366946312</v>
+      </c>
+      <c r="M37">
+        <v>1.001829630672559</v>
+      </c>
+      <c r="N37">
+        <v>1.001829630672559</v>
+      </c>
+      <c r="O37">
+        <v>1.001185135830376</v>
+      </c>
+      <c r="P37">
+        <v>1.003285776356836</v>
+      </c>
+      <c r="Q37">
+        <v>1.003285776356836</v>
+      </c>
+      <c r="R37">
+        <v>1.004013849198975</v>
+      </c>
+      <c r="S37">
+        <v>1.004013849198975</v>
+      </c>
+      <c r="T37">
+        <v>1.000959462424027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9961005522299859</v>
+      </c>
+      <c r="D38">
+        <v>0.9886882570148895</v>
+      </c>
+      <c r="E38">
+        <v>0.9961005522299859</v>
+      </c>
+      <c r="F38">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="G38">
+        <v>1.010430123942148</v>
+      </c>
+      <c r="H38">
+        <v>0.990225137183199</v>
+      </c>
+      <c r="I38">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="J38">
+        <v>0.9959715009486297</v>
+      </c>
+      <c r="K38">
+        <v>0.9983025353370873</v>
+      </c>
+      <c r="L38">
+        <v>0.9886882570148895</v>
+      </c>
+      <c r="M38">
+        <v>0.9923944046224378</v>
+      </c>
+      <c r="N38">
+        <v>0.9923944046224378</v>
+      </c>
+      <c r="O38">
+        <v>0.998406311062341</v>
+      </c>
+      <c r="P38">
+        <v>0.994363781527321</v>
+      </c>
+      <c r="Q38">
+        <v>0.994363781527321</v>
+      </c>
+      <c r="R38">
+        <v>0.9953484699797626</v>
+      </c>
+      <c r="S38">
+        <v>0.9953484699797626</v>
+      </c>
+      <c r="T38">
+        <v>0.9966196844426566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.014644095420485</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9802608392294291</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.014644095420485</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9567014081255085</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.028657729970695</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9779136439910726</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9567014081255085</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00158398139586</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9567014081255085</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9802608392294291</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.997452467324957</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.997452467324957</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.007854221540203</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9838687809251407</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9838687809251409</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9770769377252329</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9770769377252329</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9932936163555084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8418964468127774</v>
+      </c>
+      <c r="D40">
+        <v>1.019532817045834</v>
+      </c>
+      <c r="E40">
+        <v>0.8418964468127774</v>
+      </c>
+      <c r="F40">
+        <v>1.080913064346682</v>
+      </c>
+      <c r="G40">
+        <v>0.8560180724821523</v>
+      </c>
+      <c r="H40">
+        <v>1.130556466868306</v>
+      </c>
+      <c r="I40">
+        <v>1.080913064346682</v>
+      </c>
+      <c r="J40">
+        <v>1.066509128514993</v>
+      </c>
+      <c r="K40">
+        <v>1.080913064346682</v>
+      </c>
+      <c r="L40">
+        <v>1.019532817045834</v>
+      </c>
+      <c r="M40">
+        <v>0.9307146319293056</v>
+      </c>
+      <c r="N40">
+        <v>0.9307146319293056</v>
+      </c>
+      <c r="O40">
+        <v>0.9058157787802545</v>
+      </c>
+      <c r="P40">
+        <v>0.9807807760684311</v>
+      </c>
+      <c r="Q40">
+        <v>0.9807807760684311</v>
+      </c>
+      <c r="R40">
+        <v>1.005813848137994</v>
+      </c>
+      <c r="S40">
+        <v>1.005813848137994</v>
+      </c>
+      <c r="T40">
+        <v>0.9992376660117909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9622023325453515</v>
+      </c>
+      <c r="D41">
+        <v>0.9973131044988282</v>
+      </c>
+      <c r="E41">
+        <v>0.9622023325453515</v>
+      </c>
+      <c r="F41">
+        <v>1.085171460535054</v>
+      </c>
+      <c r="G41">
+        <v>0.9895550926997332</v>
+      </c>
+      <c r="H41">
+        <v>0.8443261930434472</v>
+      </c>
+      <c r="I41">
+        <v>1.085171460535054</v>
+      </c>
+      <c r="J41">
+        <v>1.016019757393258</v>
+      </c>
+      <c r="K41">
+        <v>1.085171460535054</v>
+      </c>
+      <c r="L41">
+        <v>0.9973131044988282</v>
+      </c>
+      <c r="M41">
+        <v>0.9797577185220898</v>
+      </c>
+      <c r="N41">
+        <v>0.9797577185220898</v>
+      </c>
+      <c r="O41">
+        <v>0.9830235099146375</v>
+      </c>
+      <c r="P41">
+        <v>1.014895632526411</v>
+      </c>
+      <c r="Q41">
+        <v>1.014895632526411</v>
+      </c>
+      <c r="R41">
+        <v>1.032464589528572</v>
+      </c>
+      <c r="S41">
+        <v>1.032464589528572</v>
+      </c>
+      <c r="T41">
+        <v>0.982431323452612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.498639793930999</v>
+      </c>
+      <c r="D42">
+        <v>1.01926909340214</v>
+      </c>
+      <c r="E42">
+        <v>1.498639793930999</v>
+      </c>
+      <c r="F42">
+        <v>0.6246586448201958</v>
+      </c>
+      <c r="G42">
+        <v>1.237686261571362</v>
+      </c>
+      <c r="H42">
+        <v>0.5611650106423668</v>
+      </c>
+      <c r="I42">
+        <v>0.6246586448201958</v>
+      </c>
+      <c r="J42">
+        <v>0.9630296190013381</v>
+      </c>
+      <c r="K42">
+        <v>0.6246586448201958</v>
+      </c>
+      <c r="L42">
+        <v>1.01926909340214</v>
+      </c>
+      <c r="M42">
+        <v>1.25895444366657</v>
+      </c>
+      <c r="N42">
+        <v>1.25895444366657</v>
+      </c>
+      <c r="O42">
+        <v>1.251865049634834</v>
+      </c>
+      <c r="P42">
+        <v>1.047522510717778</v>
+      </c>
+      <c r="Q42">
+        <v>1.047522510717778</v>
+      </c>
+      <c r="R42">
+        <v>0.9418065442433827</v>
+      </c>
+      <c r="S42">
+        <v>0.9418065442433827</v>
+      </c>
+      <c r="T42">
+        <v>0.9840747372280672</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002973143312484</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="D3">
-        <v>1.021434299295901</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="E3">
-        <v>0.9824365719561021</v>
+        <v>1.004483279605484</v>
       </c>
       <c r="F3">
-        <v>1.002973143312484</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="G3">
-        <v>0.9616674664251792</v>
+        <v>1.003071695510013</v>
       </c>
       <c r="H3">
-        <v>1.022941055945873</v>
+        <v>0.9978146496435741</v>
       </c>
       <c r="I3">
-        <v>0.9876791418760358</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="J3">
-        <v>1.021434299295901</v>
+        <v>0.9973199567496976</v>
       </c>
       <c r="K3">
-        <v>1.002973143312484</v>
+        <v>1.002009315604952</v>
       </c>
       <c r="L3">
-        <v>0.9824365719561021</v>
+        <v>0.9977326876119763</v>
       </c>
       <c r="M3">
-        <v>1.001935435626002</v>
+        <v>1.00110798360873</v>
       </c>
       <c r="N3">
-        <v>1.001935435626002</v>
+        <v>1.00110798360873</v>
       </c>
       <c r="O3">
-        <v>1.008937309065959</v>
+        <v>1.001762554242491</v>
       </c>
       <c r="P3">
-        <v>1.002281338188162</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="Q3">
-        <v>1.002281338188162</v>
+        <v>1.001408427607471</v>
       </c>
       <c r="R3">
-        <v>1.002454289469243</v>
+        <v>1.001558649606841</v>
       </c>
       <c r="S3">
-        <v>1.002454289469243</v>
+        <v>1.001558649606841</v>
       </c>
       <c r="T3">
-        <v>0.9965219464685958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.00040526412095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006827728397747</v>
+        <v>0.8418964468127774</v>
       </c>
       <c r="D4">
-        <v>1.04124651101929</v>
+        <v>1.019532817045834</v>
       </c>
       <c r="E4">
-        <v>0.9666248618954427</v>
+        <v>0.8418964468127774</v>
       </c>
       <c r="F4">
-        <v>1.006827728397747</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="G4">
-        <v>0.9272303576818325</v>
+        <v>0.8560180724821523</v>
       </c>
       <c r="H4">
-        <v>1.044291473889115</v>
+        <v>1.130556466868306</v>
       </c>
       <c r="I4">
-        <v>0.976632963253919</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="J4">
-        <v>1.04124651101929</v>
+        <v>1.066509128514993</v>
       </c>
       <c r="K4">
-        <v>1.006827728397747</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="L4">
-        <v>0.9666248618954427</v>
+        <v>1.019532817045834</v>
       </c>
       <c r="M4">
-        <v>1.003935686457366</v>
+        <v>0.9307146319293056</v>
       </c>
       <c r="N4">
-        <v>1.003935686457366</v>
+        <v>0.9307146319293056</v>
       </c>
       <c r="O4">
-        <v>1.017387615601282</v>
+        <v>0.9058157787802545</v>
       </c>
       <c r="P4">
-        <v>1.004899700437493</v>
+        <v>0.9807807760684311</v>
       </c>
       <c r="Q4">
-        <v>1.004899700437493</v>
+        <v>0.9807807760684311</v>
       </c>
       <c r="R4">
-        <v>1.005381707427557</v>
+        <v>1.005813848137994</v>
       </c>
       <c r="S4">
-        <v>1.005381707427557</v>
+        <v>1.005813848137994</v>
       </c>
       <c r="T4">
-        <v>0.9938089826895576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9992376660117909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.015344335113946</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="D5">
-        <v>1.063186508789189</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="E5">
-        <v>0.9331435714195726</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="F5">
-        <v>1.015344335113946</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="G5">
-        <v>0.8662424345817931</v>
+        <v>1.240962918530766</v>
       </c>
       <c r="H5">
-        <v>1.079663307343284</v>
+        <v>0.789140896233317</v>
       </c>
       <c r="I5">
-        <v>0.9583109796846283</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="J5">
-        <v>1.063186508789189</v>
+        <v>0.8682876559956771</v>
       </c>
       <c r="K5">
-        <v>1.015344335113946</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="L5">
-        <v>0.9331435714195726</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="M5">
-        <v>0.9981650401043807</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="N5">
-        <v>0.9981650401043807</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="O5">
-        <v>1.025331129184015</v>
+        <v>1.170073588306023</v>
       </c>
       <c r="P5">
-        <v>1.003891471774236</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="Q5">
-        <v>1.003891471774236</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="R5">
-        <v>1.006754687609164</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="S5">
-        <v>1.006754687609164</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="T5">
-        <v>0.9859818561554022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.002312379786794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015377451906047</v>
+        <v>2.031879575501537</v>
       </c>
       <c r="D6">
-        <v>1.040227874964162</v>
+        <v>0.5934728659446126</v>
       </c>
       <c r="E6">
-        <v>0.8838866613742508</v>
+        <v>2.031879575501537</v>
       </c>
       <c r="F6">
-        <v>1.015377451906047</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="G6">
-        <v>0.7841573251638899</v>
+        <v>1.757767570601517</v>
       </c>
       <c r="H6">
-        <v>1.119080811087596</v>
+        <v>0.4095578471511122</v>
       </c>
       <c r="I6">
-        <v>0.9374191158452037</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="J6">
-        <v>1.040227874964162</v>
+        <v>0.5078943063843687</v>
       </c>
       <c r="K6">
-        <v>1.015377451906047</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="L6">
-        <v>0.8838866613742508</v>
+        <v>0.5934728659446126</v>
       </c>
       <c r="M6">
-        <v>0.9620572681692066</v>
+        <v>1.312676220723075</v>
       </c>
       <c r="N6">
-        <v>0.9620572681692066</v>
+        <v>1.312676220723075</v>
       </c>
       <c r="O6">
-        <v>1.014398449142003</v>
+        <v>1.461040004015889</v>
       </c>
       <c r="P6">
-        <v>0.9798306627481534</v>
+        <v>1.018680633471569</v>
       </c>
       <c r="Q6">
-        <v>0.9798306627481536</v>
+        <v>1.018680633471569</v>
       </c>
       <c r="R6">
-        <v>0.988717360037627</v>
+        <v>0.871682839845816</v>
       </c>
       <c r="S6">
-        <v>0.988717360037627</v>
+        <v>0.871682839845816</v>
       </c>
       <c r="T6">
-        <v>0.963358206723525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9552102707586175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999937760882218</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="D7">
-        <v>1.001973978537139</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="E7">
-        <v>0.9991204829049938</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="F7">
-        <v>0.999937760882218</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="G7">
-        <v>0.9987787416763921</v>
+        <v>1.025442750520016</v>
       </c>
       <c r="H7">
-        <v>1.001313338993374</v>
+        <v>0.9569176443261654</v>
       </c>
       <c r="I7">
-        <v>0.9989811547594749</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="J7">
-        <v>1.001973978537139</v>
+        <v>0.9890122770396376</v>
       </c>
       <c r="K7">
-        <v>0.999937760882218</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="L7">
-        <v>0.9991204829049938</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="M7">
-        <v>1.000547230721066</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="N7">
-        <v>1.000547230721066</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="O7">
-        <v>1.000802600145169</v>
+        <v>1.008961493585822</v>
       </c>
       <c r="P7">
-        <v>1.000344074108117</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="Q7">
-        <v>1.000344074108117</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="R7">
-        <v>1.000242495801642</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="S7">
-        <v>1.000242495801642</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="T7">
-        <v>1.000017576292265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9959887594939262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002009315604951</v>
+        <v>1.003557894398805</v>
       </c>
       <c r="D8">
-        <v>1.004483279605483</v>
+        <v>1.000101366946312</v>
       </c>
       <c r="E8">
-        <v>0.9977326876119766</v>
+        <v>1.003557894398805</v>
       </c>
       <c r="F8">
-        <v>1.002009315604951</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="G8">
-        <v>0.9978146496435747</v>
+        <v>0.9998961461460112</v>
       </c>
       <c r="H8">
-        <v>1.003071695510013</v>
+        <v>0.9980639352427068</v>
       </c>
       <c r="I8">
-        <v>0.997319956749698</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="J8">
-        <v>1.004483279605483</v>
+        <v>0.9979393640849364</v>
       </c>
       <c r="K8">
-        <v>1.002009315604951</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="L8">
-        <v>0.9977326876119766</v>
+        <v>1.000101366946312</v>
       </c>
       <c r="M8">
-        <v>1.00110798360873</v>
+        <v>1.001829630672559</v>
       </c>
       <c r="N8">
-        <v>1.00110798360873</v>
+        <v>1.001829630672559</v>
       </c>
       <c r="O8">
-        <v>1.001762554242491</v>
+        <v>1.001185135830376</v>
       </c>
       <c r="P8">
-        <v>1.00140842760747</v>
+        <v>1.003285776356836</v>
       </c>
       <c r="Q8">
-        <v>1.00140842760747</v>
+        <v>1.003285776356836</v>
       </c>
       <c r="R8">
-        <v>1.001558649606841</v>
+        <v>1.004013849198975</v>
       </c>
       <c r="S8">
-        <v>1.001558649606841</v>
+        <v>1.004013849198975</v>
       </c>
       <c r="T8">
-        <v>1.00040526412095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000959462424027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004867929824731</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="D9">
-        <v>1.006999285088237</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="E9">
-        <v>0.9964983857400731</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="F9">
-        <v>1.004867929824731</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="G9">
-        <v>0.9941991366036124</v>
+        <v>1.044291473889115</v>
       </c>
       <c r="H9">
-        <v>1.00399037780091</v>
+        <v>0.9272303576818324</v>
       </c>
       <c r="I9">
-        <v>0.9966832014218237</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="J9">
-        <v>1.006999285088237</v>
+        <v>0.976632963253919</v>
       </c>
       <c r="K9">
-        <v>1.004867929824731</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="L9">
-        <v>0.9964983857400731</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="M9">
-        <v>1.001748835414155</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="N9">
-        <v>1.001748835414155</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="O9">
-        <v>1.00249601620974</v>
+        <v>1.017387615601282</v>
       </c>
       <c r="P9">
-        <v>1.002788533551014</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="Q9">
-        <v>1.002788533551014</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="R9">
-        <v>1.003308382619443</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="S9">
-        <v>1.003308382619443</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="T9">
-        <v>1.000539719413231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9938089826895576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007322118391491</v>
+        <v>2.048081969627257</v>
       </c>
       <c r="D10">
-        <v>1.013163220912</v>
+        <v>0.5891694700806396</v>
       </c>
       <c r="E10">
-        <v>0.9927533543327617</v>
+        <v>2.048081969627257</v>
       </c>
       <c r="F10">
-        <v>1.007322118391491</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="G10">
-        <v>0.9889934033519625</v>
+        <v>1.769833401279555</v>
       </c>
       <c r="H10">
-        <v>1.008409837416527</v>
+        <v>0.4081738727255506</v>
       </c>
       <c r="I10">
-        <v>0.9925719819530319</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="J10">
-        <v>1.013163220912</v>
+        <v>0.4996605740414308</v>
       </c>
       <c r="K10">
-        <v>1.007322118391491</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="L10">
-        <v>0.9927533543327617</v>
+        <v>0.5891694700806396</v>
       </c>
       <c r="M10">
-        <v>1.002958287622381</v>
+        <v>1.318625719853948</v>
       </c>
       <c r="N10">
-        <v>1.002958287622381</v>
+        <v>1.318625719853948</v>
       </c>
       <c r="O10">
-        <v>1.004775470887096</v>
+        <v>1.469028280329151</v>
       </c>
       <c r="P10">
-        <v>1.004412897878751</v>
+        <v>1.018318392815098</v>
       </c>
       <c r="Q10">
-        <v>1.004412897878751</v>
+        <v>1.018318392815098</v>
       </c>
       <c r="R10">
-        <v>1.005140203006936</v>
+        <v>0.8681647292956731</v>
       </c>
       <c r="S10">
-        <v>1.005140203006936</v>
+        <v>0.8681647292956731</v>
       </c>
       <c r="T10">
-        <v>1.000535652726296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9554371710819717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.022502055393421</v>
+        <v>0.8553739314862674</v>
       </c>
       <c r="D11">
-        <v>1.018844933777805</v>
+        <v>1.017467108920688</v>
       </c>
       <c r="E11">
-        <v>0.9846254240270742</v>
+        <v>0.8553739314862674</v>
       </c>
       <c r="F11">
-        <v>1.022502055393421</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="G11">
-        <v>0.9774725197046199</v>
+        <v>0.921153860519428</v>
       </c>
       <c r="H11">
-        <v>1.015244989005219</v>
+        <v>0.8000527382210941</v>
       </c>
       <c r="I11">
-        <v>0.9870989492018327</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="J11">
-        <v>1.018844933777805</v>
+        <v>1.081199201788548</v>
       </c>
       <c r="K11">
-        <v>1.022502055393421</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="L11">
-        <v>0.9846254240270742</v>
+        <v>1.017467108920688</v>
       </c>
       <c r="M11">
-        <v>1.00173517890244</v>
+        <v>0.9364205202034777</v>
       </c>
       <c r="N11">
-        <v>1.00173517890244</v>
+        <v>0.9364205202034777</v>
       </c>
       <c r="O11">
-        <v>1.006238448936699</v>
+        <v>0.9313316336421278</v>
       </c>
       <c r="P11">
-        <v>1.0086574710661</v>
+        <v>0.9829775309321214</v>
       </c>
       <c r="Q11">
-        <v>1.0086574710661</v>
+        <v>0.9829775309321214</v>
       </c>
       <c r="R11">
-        <v>1.012118617147931</v>
+        <v>1.006256036296443</v>
       </c>
       <c r="S11">
-        <v>1.012118617147931</v>
+        <v>1.006256036296443</v>
       </c>
       <c r="T11">
-        <v>1.000964811851662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9585563988875725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.684950839951145</v>
+        <v>1.381998110128662</v>
       </c>
       <c r="D12">
-        <v>0.4250440291123708</v>
+        <v>0.8896561583052646</v>
       </c>
       <c r="E12">
-        <v>0.8591386488652991</v>
+        <v>1.381998110128662</v>
       </c>
       <c r="F12">
-        <v>1.684950839951145</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="G12">
-        <v>0.3319920355424585</v>
+        <v>1.251617046856739</v>
       </c>
       <c r="H12">
-        <v>0.8876723907577301</v>
+        <v>0.8371250029617577</v>
       </c>
       <c r="I12">
-        <v>1.096048518425797</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="J12">
-        <v>0.4250440291123708</v>
+        <v>0.8552560450526325</v>
       </c>
       <c r="K12">
-        <v>1.684950839951145</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="L12">
-        <v>0.8591386488652991</v>
+        <v>0.8896561583052646</v>
       </c>
       <c r="M12">
-        <v>0.642091338988835</v>
+        <v>1.135827134216963</v>
       </c>
       <c r="N12">
-        <v>0.642091338988835</v>
+        <v>1.135827134216963</v>
       </c>
       <c r="O12">
-        <v>0.7239516895784667</v>
+        <v>1.174423771763555</v>
       </c>
       <c r="P12">
-        <v>0.9897111726429383</v>
+        <v>1.025360131363975</v>
       </c>
       <c r="Q12">
-        <v>0.9897111726429381</v>
+        <v>1.025360131363975</v>
       </c>
       <c r="R12">
-        <v>1.16352108946999</v>
+        <v>0.9701266299374808</v>
       </c>
       <c r="S12">
-        <v>1.16352108946999</v>
+        <v>0.9701266299374808</v>
       </c>
       <c r="T12">
-        <v>0.8808077437758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.003346414827176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7318912868663987</v>
+        <v>0.6887888692252271</v>
       </c>
       <c r="D13">
-        <v>1.160934499794196</v>
+        <v>1.075228071297343</v>
       </c>
       <c r="E13">
-        <v>1.074534427691004</v>
+        <v>0.6887888692252271</v>
       </c>
       <c r="F13">
-        <v>0.7318912868663987</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="G13">
-        <v>1.395607564995098</v>
+        <v>0.8327602305015727</v>
       </c>
       <c r="H13">
-        <v>1.007927712914645</v>
+        <v>1.190985914623803</v>
       </c>
       <c r="I13">
-        <v>0.9891341126136234</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="J13">
-        <v>1.160934499794196</v>
+        <v>1.08188621709286</v>
       </c>
       <c r="K13">
-        <v>0.7318912868663987</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="L13">
-        <v>1.074534427691004</v>
+        <v>1.075228071297343</v>
       </c>
       <c r="M13">
-        <v>1.1177344637426</v>
+        <v>0.8820084702612848</v>
       </c>
       <c r="N13">
-        <v>1.1177344637426</v>
+        <v>0.8820084702612848</v>
       </c>
       <c r="O13">
-        <v>1.081132213466615</v>
+        <v>0.8655923903413808</v>
       </c>
       <c r="P13">
-        <v>0.9891200714505328</v>
+        <v>0.9480884524150229</v>
       </c>
       <c r="Q13">
-        <v>0.9891200714505328</v>
+        <v>0.9480884524150229</v>
       </c>
       <c r="R13">
-        <v>0.9248128753044993</v>
+        <v>0.9811284434918919</v>
       </c>
       <c r="S13">
-        <v>0.9248128753044993</v>
+        <v>0.9811284434918919</v>
       </c>
       <c r="T13">
-        <v>1.060004934145828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9916496199105507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1239783455285957</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="D14">
-        <v>1.292413382746126</v>
+        <v>0.2751232800000001</v>
       </c>
       <c r="E14">
-        <v>1.358926550681507</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="F14">
-        <v>0.1239783455285957</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="G14">
-        <v>2.065664994173343</v>
+        <v>2.308073500000003</v>
       </c>
       <c r="H14">
-        <v>1.049211098525847</v>
+        <v>-0.002229274100000001</v>
       </c>
       <c r="I14">
-        <v>0.9629233818555964</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="J14">
-        <v>1.292413382746126</v>
+        <v>0.1250581700000001</v>
       </c>
       <c r="K14">
-        <v>0.1239783455285957</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="L14">
-        <v>1.358926550681507</v>
+        <v>0.2751232800000001</v>
       </c>
       <c r="M14">
-        <v>1.325669966713817</v>
+        <v>1.491299640000002</v>
       </c>
       <c r="N14">
-        <v>1.325669966713817</v>
+        <v>1.491299640000002</v>
       </c>
       <c r="O14">
-        <v>1.23351701065116</v>
+        <v>1.763557593333336</v>
       </c>
       <c r="P14">
-        <v>0.9251060929854096</v>
+        <v>0.9955253923000016</v>
       </c>
       <c r="Q14">
-        <v>0.9251060929854096</v>
+        <v>0.9955253923000017</v>
       </c>
       <c r="R14">
-        <v>0.7248241561212061</v>
+        <v>0.7476382684500013</v>
       </c>
       <c r="S14">
-        <v>0.7248241561212061</v>
+        <v>0.7476382684500013</v>
       </c>
       <c r="T14">
-        <v>1.142186292251836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9029130954666681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.348066131739175</v>
+        <v>0.00064866866</v>
       </c>
       <c r="D15">
-        <v>0.9076313267717879</v>
+        <v>0.026860481</v>
       </c>
       <c r="E15">
-        <v>0.9679326571662478</v>
+        <v>0.00064866866</v>
       </c>
       <c r="F15">
-        <v>1.348066131739175</v>
+        <v>7.6546011</v>
       </c>
       <c r="G15">
-        <v>0.4417138885944184</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="H15">
-        <v>0.7402963108679964</v>
+        <v>0.0074812554</v>
       </c>
       <c r="I15">
-        <v>1.152414154630152</v>
+        <v>7.6546011</v>
       </c>
       <c r="J15">
-        <v>0.9076313267717879</v>
+        <v>0.60377661</v>
       </c>
       <c r="K15">
-        <v>1.348066131739175</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>0.9679326571662478</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.9377819919690178</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N15">
-        <v>0.9377819919690178</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O15">
-        <v>0.8719534316020107</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P15">
-        <v>1.074543371892404</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q15">
-        <v>1.074543371892404</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R15">
-        <v>1.142924061854097</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S15">
-        <v>1.142924061854097</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T15">
-        <v>0.9263424116282962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.39175324751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9965400788789709</v>
+        <v>0.0026006657</v>
       </c>
       <c r="D16">
-        <v>0.9998804949864692</v>
+        <v>0.59147943</v>
       </c>
       <c r="E16">
-        <v>0.9996087808732865</v>
+        <v>0.0026006657</v>
       </c>
       <c r="F16">
-        <v>0.9965400788789709</v>
+        <v>1.3552718</v>
       </c>
       <c r="G16">
-        <v>1.001480433168281</v>
+        <v>0.010214695</v>
       </c>
       <c r="H16">
-        <v>1.001077261245199</v>
+        <v>0.82269743</v>
       </c>
       <c r="I16">
-        <v>1.000046509354893</v>
+        <v>1.3552718</v>
       </c>
       <c r="J16">
-        <v>0.9998804949864692</v>
+        <v>1.6931914</v>
       </c>
       <c r="K16">
-        <v>0.9965400788789709</v>
+        <v>1.3552718</v>
       </c>
       <c r="L16">
-        <v>0.9996087808732865</v>
+        <v>0.59147943</v>
       </c>
       <c r="M16">
-        <v>0.9997446379298779</v>
+        <v>0.29704004785</v>
       </c>
       <c r="N16">
-        <v>0.9997446379298779</v>
+        <v>0.29704004785</v>
       </c>
       <c r="O16">
-        <v>1.000188845701652</v>
+        <v>0.2014315969</v>
       </c>
       <c r="P16">
-        <v>0.9986764515795755</v>
+        <v>0.6497839652333334</v>
       </c>
       <c r="Q16">
-        <v>0.9986764515795755</v>
+        <v>0.6497839652333334</v>
       </c>
       <c r="R16">
-        <v>0.9981423584044243</v>
+        <v>0.826155923925</v>
       </c>
       <c r="S16">
-        <v>0.9981423584044243</v>
+        <v>0.826155923925</v>
       </c>
       <c r="T16">
-        <v>0.9997722597511833</v>
+        <v>0.7459092367833334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.006198067725392</v>
+        <v>0.0016916798</v>
       </c>
       <c r="D17">
-        <v>1.003557894398805</v>
+        <v>1.3675258</v>
       </c>
       <c r="E17">
-        <v>1.000101366946312</v>
+        <v>0.0016916798</v>
       </c>
       <c r="F17">
-        <v>1.006198067725392</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="G17">
-        <v>0.9980639352427088</v>
+        <v>0.0092758471</v>
       </c>
       <c r="H17">
-        <v>0.999896146146011</v>
+        <v>2.9269772</v>
       </c>
       <c r="I17">
-        <v>0.9979393640849366</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="J17">
-        <v>1.003557894398805</v>
+        <v>1.347738</v>
       </c>
       <c r="K17">
-        <v>1.006198067725392</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="L17">
-        <v>1.000101366946312</v>
+        <v>1.3675258</v>
       </c>
       <c r="M17">
-        <v>1.001829630672559</v>
+        <v>0.6846087398999999</v>
       </c>
       <c r="N17">
-        <v>1.001829630672559</v>
+        <v>0.6846087398999999</v>
       </c>
       <c r="O17">
-        <v>1.001185135830376</v>
+        <v>0.4594977756333333</v>
       </c>
       <c r="P17">
-        <v>1.003285776356837</v>
+        <v>0.7736389732666668</v>
       </c>
       <c r="Q17">
-        <v>1.003285776356837</v>
+        <v>0.7736389732666668</v>
       </c>
       <c r="R17">
-        <v>1.004013849198975</v>
+        <v>0.8181540899500001</v>
       </c>
       <c r="S17">
-        <v>1.004013849198975</v>
+        <v>0.8181540899500001</v>
       </c>
       <c r="T17">
-        <v>1.000959462424028</v>
+        <v>1.100817994483333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983025353370867</v>
+        <v>1.528042737821095</v>
       </c>
       <c r="D18">
-        <v>0.9961005522299856</v>
+        <v>0.5999787024520546</v>
       </c>
       <c r="E18">
-        <v>0.9886882570148895</v>
+        <v>1.528042737821095</v>
       </c>
       <c r="F18">
-        <v>0.9983025353370867</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="G18">
-        <v>0.9902251371831989</v>
+        <v>1.505378713315068</v>
       </c>
       <c r="H18">
-        <v>1.010430123942147</v>
+        <v>0.09875237202630137</v>
       </c>
       <c r="I18">
-        <v>0.99597150094863</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="J18">
-        <v>0.9961005522299856</v>
+        <v>0.727110376410959</v>
       </c>
       <c r="K18">
-        <v>0.9983025353370867</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="L18">
-        <v>0.9886882570148895</v>
+        <v>0.5999787024520546</v>
       </c>
       <c r="M18">
-        <v>0.9923944046224376</v>
+        <v>1.064010720136575</v>
       </c>
       <c r="N18">
-        <v>0.9923944046224376</v>
+        <v>1.064010720136575</v>
       </c>
       <c r="O18">
-        <v>0.9984063110623408</v>
+        <v>1.211133384529406</v>
       </c>
       <c r="P18">
-        <v>0.9943637815273206</v>
+        <v>1.095285646878265</v>
       </c>
       <c r="Q18">
-        <v>0.9943637815273206</v>
+        <v>1.095285646878265</v>
       </c>
       <c r="R18">
-        <v>0.9953484699797621</v>
+        <v>1.11092311024911</v>
       </c>
       <c r="S18">
-        <v>0.9953484699797621</v>
+        <v>1.11092311024911</v>
       </c>
       <c r="T18">
-        <v>0.9966196844426564</v>
+        <v>0.9361830670645204</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9567014081255089</v>
+        <v>1.786339383717948</v>
       </c>
       <c r="D19">
-        <v>1.014644095420485</v>
+        <v>1.125884597368421</v>
       </c>
       <c r="E19">
-        <v>0.980260839229429</v>
+        <v>1.786339383717948</v>
       </c>
       <c r="F19">
-        <v>0.9567014081255089</v>
+        <v>0.9001107151</v>
       </c>
       <c r="G19">
-        <v>0.9779136439910728</v>
+        <v>0.6090701729000001</v>
       </c>
       <c r="H19">
-        <v>1.028657729970695</v>
+        <v>2.593467654847368</v>
       </c>
       <c r="I19">
-        <v>1.00158398139586</v>
+        <v>0.9001107151</v>
       </c>
       <c r="J19">
-        <v>1.014644095420485</v>
+        <v>0.8330570915789475</v>
       </c>
       <c r="K19">
-        <v>0.9567014081255089</v>
+        <v>0.9001107151</v>
       </c>
       <c r="L19">
-        <v>0.980260839229429</v>
+        <v>1.125884597368421</v>
       </c>
       <c r="M19">
-        <v>0.997452467324957</v>
+        <v>1.456111990543185</v>
       </c>
       <c r="N19">
-        <v>0.997452467324957</v>
+        <v>1.456111990543185</v>
       </c>
       <c r="O19">
-        <v>1.007854221540203</v>
+        <v>1.173764717995456</v>
       </c>
       <c r="P19">
-        <v>0.9838687809251409</v>
+        <v>1.270778232062123</v>
       </c>
       <c r="Q19">
-        <v>0.9838687809251409</v>
+        <v>1.270778232062123</v>
       </c>
       <c r="R19">
-        <v>0.9770769377252329</v>
+        <v>1.178111352821592</v>
       </c>
       <c r="S19">
-        <v>0.9770769377252329</v>
+        <v>1.178111352821592</v>
       </c>
       <c r="T19">
-        <v>0.9932936163555084</v>
+        <v>1.307988269252114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.3774388321684213</v>
+      </c>
+      <c r="D20">
+        <v>0.7916009230526316</v>
+      </c>
+      <c r="E20">
+        <v>0.3774388321684213</v>
+      </c>
+      <c r="F20">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="G20">
+        <v>0.8976872849000003</v>
+      </c>
+      <c r="H20">
+        <v>1.464827346900526</v>
+      </c>
+      <c r="I20">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="J20">
+        <v>1.045472898947369</v>
+      </c>
+      <c r="K20">
+        <v>1.304246736042105</v>
+      </c>
+      <c r="L20">
+        <v>0.7916009230526316</v>
+      </c>
+      <c r="M20">
+        <v>0.5845198776105265</v>
+      </c>
+      <c r="N20">
+        <v>0.5845198776105265</v>
+      </c>
+      <c r="O20">
+        <v>0.6889090133736845</v>
+      </c>
+      <c r="P20">
+        <v>0.8244288304210526</v>
+      </c>
+      <c r="Q20">
+        <v>0.8244288304210526</v>
+      </c>
+      <c r="R20">
+        <v>0.9443833068263159</v>
+      </c>
+      <c r="S20">
+        <v>0.9443833068263159</v>
+      </c>
+      <c r="T20">
+        <v>0.9802123370018422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.292413382746126</v>
+      </c>
+      <c r="D21">
+        <v>1.358926550681507</v>
+      </c>
+      <c r="E21">
+        <v>1.292413382746126</v>
+      </c>
+      <c r="F21">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="G21">
+        <v>1.049211098525847</v>
+      </c>
+      <c r="H21">
+        <v>2.065664994173343</v>
+      </c>
+      <c r="I21">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="J21">
+        <v>0.9629233818555961</v>
+      </c>
+      <c r="K21">
+        <v>0.1239783455285956</v>
+      </c>
+      <c r="L21">
+        <v>1.358926550681507</v>
+      </c>
+      <c r="M21">
+        <v>1.325669966713817</v>
+      </c>
+      <c r="N21">
+        <v>1.325669966713817</v>
+      </c>
+      <c r="O21">
+        <v>1.23351701065116</v>
+      </c>
+      <c r="P21">
+        <v>0.9251060929854096</v>
+      </c>
+      <c r="Q21">
+        <v>0.9251060929854096</v>
+      </c>
+      <c r="R21">
+        <v>0.7248241561212061</v>
+      </c>
+      <c r="S21">
+        <v>0.7248241561212061</v>
+      </c>
+      <c r="T21">
+        <v>1.142186292251836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9076313267717879</v>
+      </c>
+      <c r="D22">
+        <v>0.9679326571662478</v>
+      </c>
+      <c r="E22">
+        <v>0.9076313267717879</v>
+      </c>
+      <c r="F22">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="G22">
+        <v>0.7402963108679964</v>
+      </c>
+      <c r="H22">
+        <v>0.4417138885944184</v>
+      </c>
+      <c r="I22">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="J22">
+        <v>1.152414154630152</v>
+      </c>
+      <c r="K22">
+        <v>1.348066131739176</v>
+      </c>
+      <c r="L22">
+        <v>0.9679326571662478</v>
+      </c>
+      <c r="M22">
+        <v>0.9377819919690178</v>
+      </c>
+      <c r="N22">
+        <v>0.9377819919690178</v>
+      </c>
+      <c r="O22">
+        <v>0.8719534316020107</v>
+      </c>
+      <c r="P22">
+        <v>1.074543371892404</v>
+      </c>
+      <c r="Q22">
+        <v>1.074543371892404</v>
+      </c>
+      <c r="R22">
+        <v>1.142924061854097</v>
+      </c>
+      <c r="S22">
+        <v>1.142924061854097</v>
+      </c>
+      <c r="T22">
+        <v>0.9263424116282964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.4250440291123704</v>
+      </c>
+      <c r="D23">
+        <v>0.8591386488652993</v>
+      </c>
+      <c r="E23">
+        <v>0.4250440291123704</v>
+      </c>
+      <c r="F23">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="G23">
+        <v>0.8876723907577301</v>
+      </c>
+      <c r="H23">
+        <v>0.3319920355424585</v>
+      </c>
+      <c r="I23">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="J23">
+        <v>1.096048518425797</v>
+      </c>
+      <c r="K23">
+        <v>1.684950839951145</v>
+      </c>
+      <c r="L23">
+        <v>0.8591386488652993</v>
+      </c>
+      <c r="M23">
+        <v>0.6420913389888349</v>
+      </c>
+      <c r="N23">
+        <v>0.6420913389888349</v>
+      </c>
+      <c r="O23">
+        <v>0.7239516895784667</v>
+      </c>
+      <c r="P23">
+        <v>0.9897111726429383</v>
+      </c>
+      <c r="Q23">
+        <v>0.9897111726429383</v>
+      </c>
+      <c r="R23">
+        <v>1.16352108946999</v>
+      </c>
+      <c r="S23">
+        <v>1.16352108946999</v>
+      </c>
+      <c r="T23">
+        <v>0.8808077437758001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.160934499794196</v>
+      </c>
+      <c r="D24">
+        <v>1.074534427691004</v>
+      </c>
+      <c r="E24">
+        <v>1.160934499794196</v>
+      </c>
+      <c r="F24">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="G24">
+        <v>1.007927712914645</v>
+      </c>
+      <c r="H24">
+        <v>1.395607564995098</v>
+      </c>
+      <c r="I24">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="J24">
+        <v>0.9891341126136234</v>
+      </c>
+      <c r="K24">
+        <v>0.7318912868663987</v>
+      </c>
+      <c r="L24">
+        <v>1.074534427691004</v>
+      </c>
+      <c r="M24">
+        <v>1.1177344637426</v>
+      </c>
+      <c r="N24">
+        <v>1.1177344637426</v>
+      </c>
+      <c r="O24">
+        <v>1.081132213466615</v>
+      </c>
+      <c r="P24">
+        <v>0.9891200714505328</v>
+      </c>
+      <c r="Q24">
+        <v>0.9891200714505328</v>
+      </c>
+      <c r="R24">
+        <v>0.9248128753044993</v>
+      </c>
+      <c r="S24">
+        <v>0.9248128753044993</v>
+      </c>
+      <c r="T24">
+        <v>1.060004934145828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.02923504675962558</v>
+      </c>
+      <c r="D25">
+        <v>1.253059859097973</v>
+      </c>
+      <c r="E25">
+        <v>0.02923504675962558</v>
+      </c>
+      <c r="F25">
+        <v>1.596108417746434</v>
+      </c>
+      <c r="G25">
+        <v>0.457590190648458</v>
+      </c>
+      <c r="H25">
+        <v>1.184102219034402</v>
+      </c>
+      <c r="I25">
+        <v>1.596108417746434</v>
+      </c>
+      <c r="J25">
+        <v>1.181121300241148</v>
+      </c>
+      <c r="K25">
+        <v>1.596108417746434</v>
+      </c>
+      <c r="L25">
+        <v>1.253059859097973</v>
+      </c>
+      <c r="M25">
+        <v>0.6411474529287992</v>
+      </c>
+      <c r="N25">
+        <v>0.6411474529287992</v>
+      </c>
+      <c r="O25">
+        <v>0.5799616988353521</v>
+      </c>
+      <c r="P25">
+        <v>0.9594677745346774</v>
+      </c>
+      <c r="Q25">
+        <v>0.9594677745346774</v>
+      </c>
+      <c r="R25">
+        <v>1.118627935337617</v>
+      </c>
+      <c r="S25">
+        <v>1.118627935337617</v>
+      </c>
+      <c r="T25">
+        <v>0.9502028389213401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.632979649862571</v>
+      </c>
+      <c r="D26">
+        <v>0.9456827760735524</v>
+      </c>
+      <c r="E26">
+        <v>0.632979649862571</v>
+      </c>
+      <c r="F26">
+        <v>0.8854577550655962</v>
+      </c>
+      <c r="G26">
+        <v>0.9597196120801265</v>
+      </c>
+      <c r="H26">
+        <v>1.556264520183781</v>
+      </c>
+      <c r="I26">
+        <v>0.8854577550655962</v>
+      </c>
+      <c r="J26">
+        <v>1.012063321983654</v>
+      </c>
+      <c r="K26">
+        <v>0.8854577550655962</v>
+      </c>
+      <c r="L26">
+        <v>0.9456827760735524</v>
+      </c>
+      <c r="M26">
+        <v>0.7893312129680617</v>
+      </c>
+      <c r="N26">
+        <v>0.7893312129680617</v>
+      </c>
+      <c r="O26">
+        <v>0.8461273460054167</v>
+      </c>
+      <c r="P26">
+        <v>0.8213733936672399</v>
+      </c>
+      <c r="Q26">
+        <v>0.8213733936672399</v>
+      </c>
+      <c r="R26">
+        <v>0.837394484016829</v>
+      </c>
+      <c r="S26">
+        <v>0.837394484016829</v>
+      </c>
+      <c r="T26">
+        <v>0.9986946058748801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.47703742852918</v>
+      </c>
+      <c r="D27">
+        <v>0.5977399915318566</v>
+      </c>
+      <c r="E27">
+        <v>1.47703742852918</v>
+      </c>
+      <c r="F27">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="G27">
+        <v>0.9940556159157634</v>
+      </c>
+      <c r="H27">
+        <v>1.293814754203497</v>
+      </c>
+      <c r="I27">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="J27">
+        <v>0.8618734960870966</v>
+      </c>
+      <c r="K27">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="L27">
+        <v>0.5977399915318566</v>
+      </c>
+      <c r="M27">
+        <v>1.037388710030518</v>
+      </c>
+      <c r="N27">
+        <v>1.037388710030518</v>
+      </c>
+      <c r="O27">
+        <v>1.0229443453256</v>
+      </c>
+      <c r="P27">
+        <v>1.111416556349122</v>
+      </c>
+      <c r="Q27">
+        <v>1.111416556349122</v>
+      </c>
+      <c r="R27">
+        <v>1.148430479508423</v>
+      </c>
+      <c r="S27">
+        <v>1.148430479508423</v>
+      </c>
+      <c r="T27">
+        <v>1.080665589208954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8328587192631167</v>
+      </c>
+      <c r="D28">
+        <v>1.007129674435472</v>
+      </c>
+      <c r="E28">
+        <v>0.8328587192631167</v>
+      </c>
+      <c r="F28">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="G28">
+        <v>0.9798383085847263</v>
+      </c>
+      <c r="H28">
+        <v>0.965961310438687</v>
+      </c>
+      <c r="I28">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="J28">
+        <v>1.130686746036886</v>
+      </c>
+      <c r="K28">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="L28">
+        <v>1.007129674435472</v>
+      </c>
+      <c r="M28">
+        <v>0.9199941968492943</v>
+      </c>
+      <c r="N28">
+        <v>0.9199941968492943</v>
+      </c>
+      <c r="O28">
+        <v>0.9399422340944383</v>
+      </c>
+      <c r="P28">
+        <v>0.845747971876159</v>
+      </c>
+      <c r="Q28">
+        <v>0.845747971876159</v>
+      </c>
+      <c r="R28">
+        <v>0.8086248593895914</v>
+      </c>
+      <c r="S28">
+        <v>0.8086248593895914</v>
+      </c>
+      <c r="T28">
+        <v>0.9356217134481294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.203768226735622</v>
+      </c>
+      <c r="D29">
+        <v>1.071767297350074</v>
+      </c>
+      <c r="E29">
+        <v>0.203768226735622</v>
+      </c>
+      <c r="F29">
+        <v>0.6319608245189657</v>
+      </c>
+      <c r="G29">
+        <v>0.7998256604095222</v>
+      </c>
+      <c r="H29">
+        <v>0.9343519415857798</v>
+      </c>
+      <c r="I29">
+        <v>0.6319608245189657</v>
+      </c>
+      <c r="J29">
+        <v>1.350638637106521</v>
+      </c>
+      <c r="K29">
+        <v>0.6319608245189657</v>
+      </c>
+      <c r="L29">
+        <v>1.071767297350074</v>
+      </c>
+      <c r="M29">
+        <v>0.637767762042848</v>
+      </c>
+      <c r="N29">
+        <v>0.637767762042848</v>
+      </c>
+      <c r="O29">
+        <v>0.6917870614984061</v>
+      </c>
+      <c r="P29">
+        <v>0.6358321162015539</v>
+      </c>
+      <c r="Q29">
+        <v>0.6358321162015539</v>
+      </c>
+      <c r="R29">
+        <v>0.6348642932809069</v>
+      </c>
+      <c r="S29">
+        <v>0.6348642932809069</v>
+      </c>
+      <c r="T29">
+        <v>0.8320520979510807</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8418964468127774</v>
+        <v>1.367792237199607</v>
       </c>
       <c r="D4">
-        <v>1.019532817045834</v>
+        <v>0.9130871263858051</v>
       </c>
       <c r="E4">
-        <v>0.8418964468127774</v>
+        <v>1.367792237199607</v>
       </c>
       <c r="F4">
-        <v>1.080913064346682</v>
+        <v>0.8367673430876029</v>
       </c>
       <c r="G4">
-        <v>0.8560180724821523</v>
+        <v>1.215469850077175</v>
       </c>
       <c r="H4">
-        <v>1.130556466868306</v>
+        <v>0.8196890389893271</v>
       </c>
       <c r="I4">
-        <v>1.080913064346682</v>
+        <v>0.8367673430876029</v>
       </c>
       <c r="J4">
-        <v>1.066509128514993</v>
+        <v>0.8888331217680281</v>
       </c>
       <c r="K4">
-        <v>1.080913064346682</v>
+        <v>0.8367673430876029</v>
       </c>
       <c r="L4">
-        <v>1.019532817045834</v>
+        <v>0.9130871263858051</v>
       </c>
       <c r="M4">
-        <v>0.9307146319293056</v>
+        <v>1.140439681792706</v>
       </c>
       <c r="N4">
-        <v>0.9307146319293056</v>
+        <v>1.140439681792706</v>
       </c>
       <c r="O4">
-        <v>0.9058157787802545</v>
+        <v>1.165449737887529</v>
       </c>
       <c r="P4">
-        <v>0.9807807760684311</v>
+        <v>1.039215568891005</v>
       </c>
       <c r="Q4">
-        <v>0.9807807760684311</v>
+        <v>1.039215568891005</v>
       </c>
       <c r="R4">
-        <v>1.005813848137994</v>
+        <v>0.9886035124401547</v>
       </c>
       <c r="S4">
-        <v>1.005813848137994</v>
+        <v>0.9886035124401547</v>
       </c>
       <c r="T4">
-        <v>0.9992376660117909</v>
+        <v>1.006939786251258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.383927247619287</v>
+        <v>0.2110438779903187</v>
       </c>
       <c r="D5">
-        <v>0.8853305987680146</v>
+        <v>0.8537133148913461</v>
       </c>
       <c r="E5">
-        <v>1.383927247619287</v>
+        <v>0.2110438779903187</v>
       </c>
       <c r="F5">
-        <v>0.8462249615737047</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="G5">
-        <v>1.240962918530766</v>
+        <v>0.790450232665279</v>
       </c>
       <c r="H5">
-        <v>0.789140896233317</v>
+        <v>1.620511231693051</v>
       </c>
       <c r="I5">
-        <v>0.8462249615737047</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="J5">
-        <v>0.8682876559956771</v>
+        <v>1.130376317274342</v>
       </c>
       <c r="K5">
-        <v>0.8462249615737047</v>
+        <v>1.252529002027906</v>
       </c>
       <c r="L5">
-        <v>0.8853305987680146</v>
+        <v>0.8537133148913461</v>
       </c>
       <c r="M5">
-        <v>1.134628923193651</v>
+        <v>0.5323785964408324</v>
       </c>
       <c r="N5">
-        <v>1.134628923193651</v>
+        <v>0.5323785964408324</v>
       </c>
       <c r="O5">
-        <v>1.170073588306023</v>
+        <v>0.6184024751823146</v>
       </c>
       <c r="P5">
-        <v>1.038494269320336</v>
+        <v>0.7724287316365238</v>
       </c>
       <c r="Q5">
-        <v>1.038494269320336</v>
+        <v>0.7724287316365238</v>
       </c>
       <c r="R5">
-        <v>0.9904269423836778</v>
+        <v>0.8924537992343694</v>
       </c>
       <c r="S5">
-        <v>0.9904269423836778</v>
+        <v>0.8924537992343694</v>
       </c>
       <c r="T5">
-        <v>1.002312379786794</v>
+        <v>0.9764373294237071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.031879575501537</v>
+        <v>0.8418964468127774</v>
       </c>
       <c r="D6">
-        <v>0.5934728659446126</v>
+        <v>1.019532817045834</v>
       </c>
       <c r="E6">
-        <v>2.031879575501537</v>
+        <v>0.8418964468127774</v>
       </c>
       <c r="F6">
-        <v>0.4306894589685569</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="G6">
-        <v>1.757767570601517</v>
+        <v>0.8560180724821523</v>
       </c>
       <c r="H6">
-        <v>0.4095578471511122</v>
+        <v>1.130556466868306</v>
       </c>
       <c r="I6">
-        <v>0.4306894589685569</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="J6">
-        <v>0.5078943063843687</v>
+        <v>1.066509128514993</v>
       </c>
       <c r="K6">
-        <v>0.4306894589685569</v>
+        <v>1.080913064346682</v>
       </c>
       <c r="L6">
-        <v>0.5934728659446126</v>
+        <v>1.019532817045834</v>
       </c>
       <c r="M6">
-        <v>1.312676220723075</v>
+        <v>0.9307146319293056</v>
       </c>
       <c r="N6">
-        <v>1.312676220723075</v>
+        <v>0.9307146319293056</v>
       </c>
       <c r="O6">
-        <v>1.461040004015889</v>
+        <v>0.9058157787802545</v>
       </c>
       <c r="P6">
-        <v>1.018680633471569</v>
+        <v>0.9807807760684311</v>
       </c>
       <c r="Q6">
-        <v>1.018680633471569</v>
+        <v>0.9807807760684311</v>
       </c>
       <c r="R6">
-        <v>0.871682839845816</v>
+        <v>1.005813848137994</v>
       </c>
       <c r="S6">
-        <v>0.871682839845816</v>
+        <v>1.005813848137994</v>
       </c>
       <c r="T6">
-        <v>0.9552102707586175</v>
+        <v>0.9992376660117909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.020957398909632</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="D7">
-        <v>0.9804843313278194</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="E7">
-        <v>1.020957398909632</v>
+        <v>1.383927247619287</v>
       </c>
       <c r="F7">
-        <v>1.003118154840287</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="G7">
-        <v>1.025442750520016</v>
+        <v>1.240962918530766</v>
       </c>
       <c r="H7">
-        <v>0.9569176443261654</v>
+        <v>0.789140896233317</v>
       </c>
       <c r="I7">
-        <v>1.003118154840287</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="J7">
-        <v>0.9890122770396376</v>
+        <v>0.8682876559956771</v>
       </c>
       <c r="K7">
-        <v>1.003118154840287</v>
+        <v>0.8462249615737047</v>
       </c>
       <c r="L7">
-        <v>0.9804843313278194</v>
+        <v>0.8853305987680146</v>
       </c>
       <c r="M7">
-        <v>1.000720865118726</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="N7">
-        <v>1.000720865118726</v>
+        <v>1.134628923193651</v>
       </c>
       <c r="O7">
-        <v>1.008961493585822</v>
+        <v>1.170073588306023</v>
       </c>
       <c r="P7">
-        <v>1.00151996169258</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="Q7">
-        <v>1.00151996169258</v>
+        <v>1.038494269320336</v>
       </c>
       <c r="R7">
-        <v>1.001919509979506</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="S7">
-        <v>1.001919509979506</v>
+        <v>0.9904269423836778</v>
       </c>
       <c r="T7">
-        <v>0.9959887594939262</v>
+        <v>1.002312379786794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.003557894398805</v>
+        <v>2.031879575501537</v>
       </c>
       <c r="D8">
-        <v>1.000101366946312</v>
+        <v>0.5934728659446126</v>
       </c>
       <c r="E8">
-        <v>1.003557894398805</v>
+        <v>2.031879575501537</v>
       </c>
       <c r="F8">
-        <v>1.006198067725391</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="G8">
-        <v>0.9998961461460112</v>
+        <v>1.757767570601517</v>
       </c>
       <c r="H8">
-        <v>0.9980639352427068</v>
+        <v>0.4095578471511122</v>
       </c>
       <c r="I8">
-        <v>1.006198067725391</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="J8">
-        <v>0.9979393640849364</v>
+        <v>0.5078943063843687</v>
       </c>
       <c r="K8">
-        <v>1.006198067725391</v>
+        <v>0.4306894589685569</v>
       </c>
       <c r="L8">
-        <v>1.000101366946312</v>
+        <v>0.5934728659446126</v>
       </c>
       <c r="M8">
-        <v>1.001829630672559</v>
+        <v>1.312676220723075</v>
       </c>
       <c r="N8">
-        <v>1.001829630672559</v>
+        <v>1.312676220723075</v>
       </c>
       <c r="O8">
-        <v>1.001185135830376</v>
+        <v>1.461040004015889</v>
       </c>
       <c r="P8">
-        <v>1.003285776356836</v>
+        <v>1.018680633471569</v>
       </c>
       <c r="Q8">
-        <v>1.003285776356836</v>
+        <v>1.018680633471569</v>
       </c>
       <c r="R8">
-        <v>1.004013849198975</v>
+        <v>0.871682839845816</v>
       </c>
       <c r="S8">
-        <v>1.004013849198975</v>
+        <v>0.871682839845816</v>
       </c>
       <c r="T8">
-        <v>1.000959462424027</v>
+        <v>0.9552102707586175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.04124651101929</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="D9">
-        <v>0.9666248618954427</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="E9">
-        <v>1.04124651101929</v>
+        <v>1.020957398909632</v>
       </c>
       <c r="F9">
-        <v>1.006827728397747</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="G9">
-        <v>1.044291473889115</v>
+        <v>1.025442750520016</v>
       </c>
       <c r="H9">
-        <v>0.9272303576818324</v>
+        <v>0.9569176443261654</v>
       </c>
       <c r="I9">
-        <v>1.006827728397747</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="J9">
-        <v>0.976632963253919</v>
+        <v>0.9890122770396376</v>
       </c>
       <c r="K9">
-        <v>1.006827728397747</v>
+        <v>1.003118154840287</v>
       </c>
       <c r="L9">
-        <v>0.9666248618954427</v>
+        <v>0.9804843313278194</v>
       </c>
       <c r="M9">
-        <v>1.003935686457366</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="N9">
-        <v>1.003935686457366</v>
+        <v>1.000720865118726</v>
       </c>
       <c r="O9">
-        <v>1.017387615601282</v>
+        <v>1.008961493585822</v>
       </c>
       <c r="P9">
-        <v>1.004899700437493</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="Q9">
-        <v>1.004899700437493</v>
+        <v>1.00151996169258</v>
       </c>
       <c r="R9">
-        <v>1.005381707427557</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="S9">
-        <v>1.005381707427557</v>
+        <v>1.001919509979506</v>
       </c>
       <c r="T9">
-        <v>0.9938089826895576</v>
+        <v>0.9959887594939262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.048081969627257</v>
+        <v>1.003557894398805</v>
       </c>
       <c r="D10">
-        <v>0.5891694700806396</v>
+        <v>1.000101366946312</v>
       </c>
       <c r="E10">
-        <v>2.048081969627257</v>
+        <v>1.003557894398805</v>
       </c>
       <c r="F10">
-        <v>0.4177037387373977</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="G10">
-        <v>1.769833401279555</v>
+        <v>0.9998961461460112</v>
       </c>
       <c r="H10">
-        <v>0.4081738727255506</v>
+        <v>0.9980639352427068</v>
       </c>
       <c r="I10">
-        <v>0.4177037387373977</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="J10">
-        <v>0.4996605740414308</v>
+        <v>0.9979393640849364</v>
       </c>
       <c r="K10">
-        <v>0.4177037387373977</v>
+        <v>1.006198067725391</v>
       </c>
       <c r="L10">
-        <v>0.5891694700806396</v>
+        <v>1.000101366946312</v>
       </c>
       <c r="M10">
-        <v>1.318625719853948</v>
+        <v>1.001829630672559</v>
       </c>
       <c r="N10">
-        <v>1.318625719853948</v>
+        <v>1.001829630672559</v>
       </c>
       <c r="O10">
-        <v>1.469028280329151</v>
+        <v>1.001185135830376</v>
       </c>
       <c r="P10">
-        <v>1.018318392815098</v>
+        <v>1.003285776356836</v>
       </c>
       <c r="Q10">
-        <v>1.018318392815098</v>
+        <v>1.003285776356836</v>
       </c>
       <c r="R10">
-        <v>0.8681647292956731</v>
+        <v>1.004013849198975</v>
       </c>
       <c r="S10">
-        <v>0.8681647292956731</v>
+        <v>1.004013849198975</v>
       </c>
       <c r="T10">
-        <v>0.9554371710819717</v>
+        <v>1.000959462424027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8553739314862674</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="D11">
-        <v>1.017467108920688</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="E11">
-        <v>0.8553739314862674</v>
+        <v>1.04124651101929</v>
       </c>
       <c r="F11">
-        <v>1.076091552389409</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="G11">
-        <v>0.921153860519428</v>
+        <v>1.044291473889115</v>
       </c>
       <c r="H11">
-        <v>0.8000527382210941</v>
+        <v>0.9272303576818324</v>
       </c>
       <c r="I11">
-        <v>1.076091552389409</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="J11">
-        <v>1.081199201788548</v>
+        <v>0.976632963253919</v>
       </c>
       <c r="K11">
-        <v>1.076091552389409</v>
+        <v>1.006827728397747</v>
       </c>
       <c r="L11">
-        <v>1.017467108920688</v>
+        <v>0.9666248618954427</v>
       </c>
       <c r="M11">
-        <v>0.9364205202034777</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="N11">
-        <v>0.9364205202034777</v>
+        <v>1.003935686457366</v>
       </c>
       <c r="O11">
-        <v>0.9313316336421278</v>
+        <v>1.017387615601282</v>
       </c>
       <c r="P11">
-        <v>0.9829775309321214</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="Q11">
-        <v>0.9829775309321214</v>
+        <v>1.004899700437493</v>
       </c>
       <c r="R11">
-        <v>1.006256036296443</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="S11">
-        <v>1.006256036296443</v>
+        <v>1.005381707427557</v>
       </c>
       <c r="T11">
-        <v>0.9585563988875725</v>
+        <v>0.9938089826895576</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.381998110128662</v>
+        <v>2.048081969627257</v>
       </c>
       <c r="D12">
-        <v>0.8896561583052646</v>
+        <v>0.5891694700806396</v>
       </c>
       <c r="E12">
-        <v>1.381998110128662</v>
+        <v>2.048081969627257</v>
       </c>
       <c r="F12">
-        <v>0.8044261256579985</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="G12">
-        <v>1.251617046856739</v>
+        <v>1.769833401279555</v>
       </c>
       <c r="H12">
-        <v>0.8371250029617577</v>
+        <v>0.4081738727255506</v>
       </c>
       <c r="I12">
-        <v>0.8044261256579985</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="J12">
-        <v>0.8552560450526325</v>
+        <v>0.4996605740414308</v>
       </c>
       <c r="K12">
-        <v>0.8044261256579985</v>
+        <v>0.4177037387373977</v>
       </c>
       <c r="L12">
-        <v>0.8896561583052646</v>
+        <v>0.5891694700806396</v>
       </c>
       <c r="M12">
-        <v>1.135827134216963</v>
+        <v>1.318625719853948</v>
       </c>
       <c r="N12">
-        <v>1.135827134216963</v>
+        <v>1.318625719853948</v>
       </c>
       <c r="O12">
-        <v>1.174423771763555</v>
+        <v>1.469028280329151</v>
       </c>
       <c r="P12">
-        <v>1.025360131363975</v>
+        <v>1.018318392815098</v>
       </c>
       <c r="Q12">
-        <v>1.025360131363975</v>
+        <v>1.018318392815098</v>
       </c>
       <c r="R12">
-        <v>0.9701266299374808</v>
+        <v>0.8681647292956731</v>
       </c>
       <c r="S12">
-        <v>0.9701266299374808</v>
+        <v>0.8681647292956731</v>
       </c>
       <c r="T12">
-        <v>1.003346414827176</v>
+        <v>0.9554371710819717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6887888692252271</v>
+        <v>0.8553739314862674</v>
       </c>
       <c r="D13">
-        <v>1.075228071297343</v>
+        <v>1.017467108920688</v>
       </c>
       <c r="E13">
-        <v>0.6887888692252271</v>
+        <v>0.8553739314862674</v>
       </c>
       <c r="F13">
-        <v>1.080248416722499</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="G13">
-        <v>0.8327602305015727</v>
+        <v>0.921153860519428</v>
       </c>
       <c r="H13">
-        <v>1.190985914623803</v>
+        <v>0.8000527382210941</v>
       </c>
       <c r="I13">
-        <v>1.080248416722499</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="J13">
-        <v>1.08188621709286</v>
+        <v>1.081199201788548</v>
       </c>
       <c r="K13">
-        <v>1.080248416722499</v>
+        <v>1.076091552389409</v>
       </c>
       <c r="L13">
-        <v>1.075228071297343</v>
+        <v>1.017467108920688</v>
       </c>
       <c r="M13">
-        <v>0.8820084702612848</v>
+        <v>0.9364205202034777</v>
       </c>
       <c r="N13">
-        <v>0.8820084702612848</v>
+        <v>0.9364205202034777</v>
       </c>
       <c r="O13">
-        <v>0.8655923903413808</v>
+        <v>0.9313316336421278</v>
       </c>
       <c r="P13">
-        <v>0.9480884524150229</v>
+        <v>0.9829775309321214</v>
       </c>
       <c r="Q13">
-        <v>0.9480884524150229</v>
+        <v>0.9829775309321214</v>
       </c>
       <c r="R13">
-        <v>0.9811284434918919</v>
+        <v>1.006256036296443</v>
       </c>
       <c r="S13">
-        <v>0.9811284434918919</v>
+        <v>1.006256036296443</v>
       </c>
       <c r="T13">
-        <v>0.9916496199105507</v>
+        <v>0.9585563988875725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.707476000000005</v>
+        <v>1.381998110128662</v>
       </c>
       <c r="D14">
-        <v>0.2751232800000001</v>
+        <v>0.8896561583052646</v>
       </c>
       <c r="E14">
-        <v>2.707476000000005</v>
+        <v>1.381998110128662</v>
       </c>
       <c r="F14">
-        <v>0.003976896900000002</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="G14">
-        <v>2.308073500000003</v>
+        <v>1.251617046856739</v>
       </c>
       <c r="H14">
-        <v>-0.002229274100000001</v>
+        <v>0.8371250029617577</v>
       </c>
       <c r="I14">
-        <v>0.003976896900000002</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="J14">
-        <v>0.1250581700000001</v>
+        <v>0.8552560450526325</v>
       </c>
       <c r="K14">
-        <v>0.003976896900000002</v>
+        <v>0.8044261256579985</v>
       </c>
       <c r="L14">
-        <v>0.2751232800000001</v>
+        <v>0.8896561583052646</v>
       </c>
       <c r="M14">
-        <v>1.491299640000002</v>
+        <v>1.135827134216963</v>
       </c>
       <c r="N14">
-        <v>1.491299640000002</v>
+        <v>1.135827134216963</v>
       </c>
       <c r="O14">
-        <v>1.763557593333336</v>
+        <v>1.174423771763555</v>
       </c>
       <c r="P14">
-        <v>0.9955253923000016</v>
+        <v>1.025360131363975</v>
       </c>
       <c r="Q14">
-        <v>0.9955253923000017</v>
+        <v>1.025360131363975</v>
       </c>
       <c r="R14">
-        <v>0.7476382684500013</v>
+        <v>0.9701266299374808</v>
       </c>
       <c r="S14">
-        <v>0.7476382684500013</v>
+        <v>0.9701266299374808</v>
       </c>
       <c r="T14">
-        <v>0.9029130954666681</v>
+        <v>1.003346414827176</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00064866866</v>
+        <v>0.6887888692252271</v>
       </c>
       <c r="D15">
-        <v>0.026860481</v>
+        <v>1.075228071297343</v>
       </c>
       <c r="E15">
-        <v>0.00064866866</v>
+        <v>0.6887888692252271</v>
       </c>
       <c r="F15">
-        <v>7.6546011</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="G15">
-        <v>0.05715137000000001</v>
+        <v>0.8327602305015727</v>
       </c>
       <c r="H15">
-        <v>0.0074812554</v>
+        <v>1.190985914623803</v>
       </c>
       <c r="I15">
-        <v>7.6546011</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="J15">
-        <v>0.60377661</v>
+        <v>1.08188621709286</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>1.080248416722499</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>1.075228071297343</v>
       </c>
       <c r="M15">
-        <v>0.01375457483</v>
+        <v>0.8820084702612848</v>
       </c>
       <c r="N15">
-        <v>0.01375457483</v>
+        <v>0.8820084702612848</v>
       </c>
       <c r="O15">
-        <v>0.02822017322</v>
+        <v>0.8655923903413808</v>
       </c>
       <c r="P15">
-        <v>2.560703416553333</v>
+        <v>0.9480884524150229</v>
       </c>
       <c r="Q15">
-        <v>2.560703416553333</v>
+        <v>0.9480884524150229</v>
       </c>
       <c r="R15">
-        <v>3.834177837415</v>
+        <v>0.9811284434918919</v>
       </c>
       <c r="S15">
-        <v>3.834177837415</v>
+        <v>0.9811284434918919</v>
       </c>
       <c r="T15">
-        <v>1.39175324751</v>
+        <v>0.9916496199105507</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0026006657</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="D16">
-        <v>0.59147943</v>
+        <v>0.2751232800000001</v>
       </c>
       <c r="E16">
-        <v>0.0026006657</v>
+        <v>2.707476000000005</v>
       </c>
       <c r="F16">
-        <v>1.3552718</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="G16">
-        <v>0.010214695</v>
+        <v>2.308073500000003</v>
       </c>
       <c r="H16">
-        <v>0.82269743</v>
+        <v>-0.002229274100000001</v>
       </c>
       <c r="I16">
-        <v>1.3552718</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="J16">
-        <v>1.6931914</v>
+        <v>0.1250581700000001</v>
       </c>
       <c r="K16">
-        <v>1.3552718</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="L16">
-        <v>0.59147943</v>
+        <v>0.2751232800000001</v>
       </c>
       <c r="M16">
-        <v>0.29704004785</v>
+        <v>1.491299640000002</v>
       </c>
       <c r="N16">
-        <v>0.29704004785</v>
+        <v>1.491299640000002</v>
       </c>
       <c r="O16">
-        <v>0.2014315969</v>
+        <v>1.763557593333336</v>
       </c>
       <c r="P16">
-        <v>0.6497839652333334</v>
+        <v>0.9955253923000016</v>
       </c>
       <c r="Q16">
-        <v>0.6497839652333334</v>
+        <v>0.9955253923000017</v>
       </c>
       <c r="R16">
-        <v>0.826155923925</v>
+        <v>0.7476382684500013</v>
       </c>
       <c r="S16">
-        <v>0.826155923925</v>
+        <v>0.7476382684500013</v>
       </c>
       <c r="T16">
-        <v>0.7459092367833334</v>
+        <v>0.9029130954666681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0016916798</v>
+        <v>0.00064866866</v>
       </c>
       <c r="D17">
-        <v>1.3675258</v>
+        <v>0.026860481</v>
       </c>
       <c r="E17">
-        <v>0.0016916798</v>
+        <v>0.00064866866</v>
       </c>
       <c r="F17">
-        <v>0.9516994400000001</v>
+        <v>7.6546011</v>
       </c>
       <c r="G17">
-        <v>0.0092758471</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="H17">
-        <v>2.9269772</v>
+        <v>0.0074812554</v>
       </c>
       <c r="I17">
-        <v>0.9516994400000001</v>
+        <v>7.6546011</v>
       </c>
       <c r="J17">
-        <v>1.347738</v>
+        <v>0.60377661</v>
       </c>
       <c r="K17">
-        <v>0.9516994400000001</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>1.3675258</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>0.6846087398999999</v>
+        <v>0.01375457483</v>
       </c>
       <c r="N17">
-        <v>0.6846087398999999</v>
+        <v>0.01375457483</v>
       </c>
       <c r="O17">
-        <v>0.4594977756333333</v>
+        <v>0.02822017322</v>
       </c>
       <c r="P17">
-        <v>0.7736389732666668</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="Q17">
-        <v>0.7736389732666668</v>
+        <v>2.560703416553333</v>
       </c>
       <c r="R17">
-        <v>0.8181540899500001</v>
+        <v>3.834177837415</v>
       </c>
       <c r="S17">
-        <v>0.8181540899500001</v>
+        <v>3.834177837415</v>
       </c>
       <c r="T17">
-        <v>1.100817994483333</v>
+        <v>1.39175324751</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.528042737821095</v>
+        <v>0.0026006657</v>
       </c>
       <c r="D18">
-        <v>0.5999787024520546</v>
+        <v>0.59147943</v>
       </c>
       <c r="E18">
-        <v>1.528042737821095</v>
+        <v>0.0026006657</v>
       </c>
       <c r="F18">
-        <v>1.157835500361644</v>
+        <v>1.3552718</v>
       </c>
       <c r="G18">
-        <v>1.505378713315068</v>
+        <v>0.010214695</v>
       </c>
       <c r="H18">
-        <v>0.09875237202630137</v>
+        <v>0.82269743</v>
       </c>
       <c r="I18">
-        <v>1.157835500361644</v>
+        <v>1.3552718</v>
       </c>
       <c r="J18">
-        <v>0.727110376410959</v>
+        <v>1.6931914</v>
       </c>
       <c r="K18">
-        <v>1.157835500361644</v>
+        <v>1.3552718</v>
       </c>
       <c r="L18">
-        <v>0.5999787024520546</v>
+        <v>0.59147943</v>
       </c>
       <c r="M18">
-        <v>1.064010720136575</v>
+        <v>0.29704004785</v>
       </c>
       <c r="N18">
-        <v>1.064010720136575</v>
+        <v>0.29704004785</v>
       </c>
       <c r="O18">
-        <v>1.211133384529406</v>
+        <v>0.2014315969</v>
       </c>
       <c r="P18">
-        <v>1.095285646878265</v>
+        <v>0.6497839652333334</v>
       </c>
       <c r="Q18">
-        <v>1.095285646878265</v>
+        <v>0.6497839652333334</v>
       </c>
       <c r="R18">
-        <v>1.11092311024911</v>
+        <v>0.826155923925</v>
       </c>
       <c r="S18">
-        <v>1.11092311024911</v>
+        <v>0.826155923925</v>
       </c>
       <c r="T18">
-        <v>0.9361830670645204</v>
+        <v>0.7459092367833334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.786339383717948</v>
+        <v>0.0016916798</v>
       </c>
       <c r="D19">
-        <v>1.125884597368421</v>
+        <v>1.3675258</v>
       </c>
       <c r="E19">
-        <v>1.786339383717948</v>
+        <v>0.0016916798</v>
       </c>
       <c r="F19">
-        <v>0.9001107151</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="G19">
-        <v>0.6090701729000001</v>
+        <v>0.0092758471</v>
       </c>
       <c r="H19">
-        <v>2.593467654847368</v>
+        <v>2.9269772</v>
       </c>
       <c r="I19">
-        <v>0.9001107151</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="J19">
-        <v>0.8330570915789475</v>
+        <v>1.347738</v>
       </c>
       <c r="K19">
-        <v>0.9001107151</v>
+        <v>0.9516994400000001</v>
       </c>
       <c r="L19">
-        <v>1.125884597368421</v>
+        <v>1.3675258</v>
       </c>
       <c r="M19">
-        <v>1.456111990543185</v>
+        <v>0.6846087398999999</v>
       </c>
       <c r="N19">
-        <v>1.456111990543185</v>
+        <v>0.6846087398999999</v>
       </c>
       <c r="O19">
-        <v>1.173764717995456</v>
+        <v>0.4594977756333333</v>
       </c>
       <c r="P19">
-        <v>1.270778232062123</v>
+        <v>0.7736389732666668</v>
       </c>
       <c r="Q19">
-        <v>1.270778232062123</v>
+        <v>0.7736389732666668</v>
       </c>
       <c r="R19">
-        <v>1.178111352821592</v>
+        <v>0.8181540899500001</v>
       </c>
       <c r="S19">
-        <v>1.178111352821592</v>
+        <v>0.8181540899500001</v>
       </c>
       <c r="T19">
-        <v>1.307988269252114</v>
+        <v>1.100817994483333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3774388321684213</v>
+        <v>1.528042737821095</v>
       </c>
       <c r="D20">
-        <v>0.7916009230526316</v>
+        <v>0.5999787024520546</v>
       </c>
       <c r="E20">
-        <v>0.3774388321684213</v>
+        <v>1.528042737821095</v>
       </c>
       <c r="F20">
-        <v>1.304246736042105</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="G20">
-        <v>0.8976872849000003</v>
+        <v>1.505378713315068</v>
       </c>
       <c r="H20">
-        <v>1.464827346900526</v>
+        <v>0.09875237202630137</v>
       </c>
       <c r="I20">
-        <v>1.304246736042105</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="J20">
-        <v>1.045472898947369</v>
+        <v>0.727110376410959</v>
       </c>
       <c r="K20">
-        <v>1.304246736042105</v>
+        <v>1.157835500361644</v>
       </c>
       <c r="L20">
-        <v>0.7916009230526316</v>
+        <v>0.5999787024520546</v>
       </c>
       <c r="M20">
-        <v>0.5845198776105265</v>
+        <v>1.064010720136575</v>
       </c>
       <c r="N20">
-        <v>0.5845198776105265</v>
+        <v>1.064010720136575</v>
       </c>
       <c r="O20">
-        <v>0.6889090133736845</v>
+        <v>1.211133384529406</v>
       </c>
       <c r="P20">
-        <v>0.8244288304210526</v>
+        <v>1.095285646878265</v>
       </c>
       <c r="Q20">
-        <v>0.8244288304210526</v>
+        <v>1.095285646878265</v>
       </c>
       <c r="R20">
-        <v>0.9443833068263159</v>
+        <v>1.11092311024911</v>
       </c>
       <c r="S20">
-        <v>0.9443833068263159</v>
+        <v>1.11092311024911</v>
       </c>
       <c r="T20">
-        <v>0.9802123370018422</v>
+        <v>0.9361830670645204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.292413382746126</v>
+        <v>1.786339383717948</v>
       </c>
       <c r="D21">
-        <v>1.358926550681507</v>
+        <v>1.125884597368421</v>
       </c>
       <c r="E21">
-        <v>1.292413382746126</v>
+        <v>1.786339383717948</v>
       </c>
       <c r="F21">
-        <v>0.1239783455285956</v>
+        <v>0.9001107151</v>
       </c>
       <c r="G21">
-        <v>1.049211098525847</v>
+        <v>0.6090701729000001</v>
       </c>
       <c r="H21">
-        <v>2.065664994173343</v>
+        <v>2.593467654847368</v>
       </c>
       <c r="I21">
-        <v>0.1239783455285956</v>
+        <v>0.9001107151</v>
       </c>
       <c r="J21">
-        <v>0.9629233818555961</v>
+        <v>0.8330570915789475</v>
       </c>
       <c r="K21">
-        <v>0.1239783455285956</v>
+        <v>0.9001107151</v>
       </c>
       <c r="L21">
-        <v>1.358926550681507</v>
+        <v>1.125884597368421</v>
       </c>
       <c r="M21">
-        <v>1.325669966713817</v>
+        <v>1.456111990543185</v>
       </c>
       <c r="N21">
-        <v>1.325669966713817</v>
+        <v>1.456111990543185</v>
       </c>
       <c r="O21">
-        <v>1.23351701065116</v>
+        <v>1.173764717995456</v>
       </c>
       <c r="P21">
-        <v>0.9251060929854096</v>
+        <v>1.270778232062123</v>
       </c>
       <c r="Q21">
-        <v>0.9251060929854096</v>
+        <v>1.270778232062123</v>
       </c>
       <c r="R21">
-        <v>0.7248241561212061</v>
+        <v>1.178111352821592</v>
       </c>
       <c r="S21">
-        <v>0.7248241561212061</v>
+        <v>1.178111352821592</v>
       </c>
       <c r="T21">
-        <v>1.142186292251836</v>
+        <v>1.307988269252114</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9076313267717879</v>
+        <v>0.3774388321684213</v>
       </c>
       <c r="D22">
-        <v>0.9679326571662478</v>
+        <v>0.7916009230526316</v>
       </c>
       <c r="E22">
-        <v>0.9076313267717879</v>
+        <v>0.3774388321684213</v>
       </c>
       <c r="F22">
-        <v>1.348066131739176</v>
+        <v>1.304246736042105</v>
       </c>
       <c r="G22">
-        <v>0.7402963108679964</v>
+        <v>0.8976872849000003</v>
       </c>
       <c r="H22">
-        <v>0.4417138885944184</v>
+        <v>1.464827346900526</v>
       </c>
       <c r="I22">
-        <v>1.348066131739176</v>
+        <v>1.304246736042105</v>
       </c>
       <c r="J22">
-        <v>1.152414154630152</v>
+        <v>1.045472898947369</v>
       </c>
       <c r="K22">
-        <v>1.348066131739176</v>
+        <v>1.304246736042105</v>
       </c>
       <c r="L22">
-        <v>0.9679326571662478</v>
+        <v>0.7916009230526316</v>
       </c>
       <c r="M22">
-        <v>0.9377819919690178</v>
+        <v>0.5845198776105265</v>
       </c>
       <c r="N22">
-        <v>0.9377819919690178</v>
+        <v>0.5845198776105265</v>
       </c>
       <c r="O22">
-        <v>0.8719534316020107</v>
+        <v>0.6889090133736845</v>
       </c>
       <c r="P22">
-        <v>1.074543371892404</v>
+        <v>0.8244288304210526</v>
       </c>
       <c r="Q22">
-        <v>1.074543371892404</v>
+        <v>0.8244288304210526</v>
       </c>
       <c r="R22">
-        <v>1.142924061854097</v>
+        <v>0.9443833068263159</v>
       </c>
       <c r="S22">
-        <v>1.142924061854097</v>
+        <v>0.9443833068263159</v>
       </c>
       <c r="T22">
-        <v>0.9263424116282964</v>
+        <v>0.9802123370018422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4250440291123704</v>
+        <v>1.292413382746126</v>
       </c>
       <c r="D23">
-        <v>0.8591386488652993</v>
+        <v>1.358926550681507</v>
       </c>
       <c r="E23">
-        <v>0.4250440291123704</v>
+        <v>1.292413382746126</v>
       </c>
       <c r="F23">
-        <v>1.684950839951145</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="G23">
-        <v>0.8876723907577301</v>
+        <v>1.049211098525847</v>
       </c>
       <c r="H23">
-        <v>0.3319920355424585</v>
+        <v>2.065664994173343</v>
       </c>
       <c r="I23">
-        <v>1.684950839951145</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="J23">
-        <v>1.096048518425797</v>
+        <v>0.9629233818555961</v>
       </c>
       <c r="K23">
-        <v>1.684950839951145</v>
+        <v>0.1239783455285956</v>
       </c>
       <c r="L23">
-        <v>0.8591386488652993</v>
+        <v>1.358926550681507</v>
       </c>
       <c r="M23">
-        <v>0.6420913389888349</v>
+        <v>1.325669966713817</v>
       </c>
       <c r="N23">
-        <v>0.6420913389888349</v>
+        <v>1.325669966713817</v>
       </c>
       <c r="O23">
-        <v>0.7239516895784667</v>
+        <v>1.23351701065116</v>
       </c>
       <c r="P23">
-        <v>0.9897111726429383</v>
+        <v>0.9251060929854096</v>
       </c>
       <c r="Q23">
-        <v>0.9897111726429383</v>
+        <v>0.9251060929854096</v>
       </c>
       <c r="R23">
-        <v>1.16352108946999</v>
+        <v>0.7248241561212061</v>
       </c>
       <c r="S23">
-        <v>1.16352108946999</v>
+        <v>0.7248241561212061</v>
       </c>
       <c r="T23">
-        <v>0.8808077437758001</v>
+        <v>1.142186292251836</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.160934499794196</v>
+        <v>0.9076313267717879</v>
       </c>
       <c r="D24">
-        <v>1.074534427691004</v>
+        <v>0.9679326571662478</v>
       </c>
       <c r="E24">
-        <v>1.160934499794196</v>
+        <v>0.9076313267717879</v>
       </c>
       <c r="F24">
-        <v>0.7318912868663987</v>
+        <v>1.348066131739176</v>
       </c>
       <c r="G24">
-        <v>1.007927712914645</v>
+        <v>0.7402963108679964</v>
       </c>
       <c r="H24">
-        <v>1.395607564995098</v>
+        <v>0.4417138885944184</v>
       </c>
       <c r="I24">
-        <v>0.7318912868663987</v>
+        <v>1.348066131739176</v>
       </c>
       <c r="J24">
-        <v>0.9891341126136234</v>
+        <v>1.152414154630152</v>
       </c>
       <c r="K24">
-        <v>0.7318912868663987</v>
+        <v>1.348066131739176</v>
       </c>
       <c r="L24">
-        <v>1.074534427691004</v>
+        <v>0.9679326571662478</v>
       </c>
       <c r="M24">
-        <v>1.1177344637426</v>
+        <v>0.9377819919690178</v>
       </c>
       <c r="N24">
-        <v>1.1177344637426</v>
+        <v>0.9377819919690178</v>
       </c>
       <c r="O24">
-        <v>1.081132213466615</v>
+        <v>0.8719534316020107</v>
       </c>
       <c r="P24">
-        <v>0.9891200714505328</v>
+        <v>1.074543371892404</v>
       </c>
       <c r="Q24">
-        <v>0.9891200714505328</v>
+        <v>1.074543371892404</v>
       </c>
       <c r="R24">
-        <v>0.9248128753044993</v>
+        <v>1.142924061854097</v>
       </c>
       <c r="S24">
-        <v>0.9248128753044993</v>
+        <v>1.142924061854097</v>
       </c>
       <c r="T24">
-        <v>1.060004934145828</v>
+        <v>0.9263424116282964</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.02923504675962558</v>
+        <v>0.4250440291123704</v>
       </c>
       <c r="D25">
-        <v>1.253059859097973</v>
+        <v>0.8591386488652993</v>
       </c>
       <c r="E25">
-        <v>0.02923504675962558</v>
+        <v>0.4250440291123704</v>
       </c>
       <c r="F25">
-        <v>1.596108417746434</v>
+        <v>1.684950839951145</v>
       </c>
       <c r="G25">
-        <v>0.457590190648458</v>
+        <v>0.8876723907577301</v>
       </c>
       <c r="H25">
-        <v>1.184102219034402</v>
+        <v>0.3319920355424585</v>
       </c>
       <c r="I25">
-        <v>1.596108417746434</v>
+        <v>1.684950839951145</v>
       </c>
       <c r="J25">
-        <v>1.181121300241148</v>
+        <v>1.096048518425797</v>
       </c>
       <c r="K25">
-        <v>1.596108417746434</v>
+        <v>1.684950839951145</v>
       </c>
       <c r="L25">
-        <v>1.253059859097973</v>
+        <v>0.8591386488652993</v>
       </c>
       <c r="M25">
-        <v>0.6411474529287992</v>
+        <v>0.6420913389888349</v>
       </c>
       <c r="N25">
-        <v>0.6411474529287992</v>
+        <v>0.6420913389888349</v>
       </c>
       <c r="O25">
-        <v>0.5799616988353521</v>
+        <v>0.7239516895784667</v>
       </c>
       <c r="P25">
-        <v>0.9594677745346774</v>
+        <v>0.9897111726429383</v>
       </c>
       <c r="Q25">
-        <v>0.9594677745346774</v>
+        <v>0.9897111726429383</v>
       </c>
       <c r="R25">
-        <v>1.118627935337617</v>
+        <v>1.16352108946999</v>
       </c>
       <c r="S25">
-        <v>1.118627935337617</v>
+        <v>1.16352108946999</v>
       </c>
       <c r="T25">
-        <v>0.9502028389213401</v>
+        <v>0.8808077437758001</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.632979649862571</v>
+        <v>1.160934499794196</v>
       </c>
       <c r="D26">
-        <v>0.9456827760735524</v>
+        <v>1.074534427691004</v>
       </c>
       <c r="E26">
-        <v>0.632979649862571</v>
+        <v>1.160934499794196</v>
       </c>
       <c r="F26">
-        <v>0.8854577550655962</v>
+        <v>0.7318912868663987</v>
       </c>
       <c r="G26">
-        <v>0.9597196120801265</v>
+        <v>1.007927712914645</v>
       </c>
       <c r="H26">
-        <v>1.556264520183781</v>
+        <v>1.395607564995098</v>
       </c>
       <c r="I26">
-        <v>0.8854577550655962</v>
+        <v>0.7318912868663987</v>
       </c>
       <c r="J26">
-        <v>1.012063321983654</v>
+        <v>0.9891341126136234</v>
       </c>
       <c r="K26">
-        <v>0.8854577550655962</v>
+        <v>0.7318912868663987</v>
       </c>
       <c r="L26">
-        <v>0.9456827760735524</v>
+        <v>1.074534427691004</v>
       </c>
       <c r="M26">
-        <v>0.7893312129680617</v>
+        <v>1.1177344637426</v>
       </c>
       <c r="N26">
-        <v>0.7893312129680617</v>
+        <v>1.1177344637426</v>
       </c>
       <c r="O26">
-        <v>0.8461273460054167</v>
+        <v>1.081132213466615</v>
       </c>
       <c r="P26">
-        <v>0.8213733936672399</v>
+        <v>0.9891200714505328</v>
       </c>
       <c r="Q26">
-        <v>0.8213733936672399</v>
+        <v>0.9891200714505328</v>
       </c>
       <c r="R26">
-        <v>0.837394484016829</v>
+        <v>0.9248128753044993</v>
       </c>
       <c r="S26">
-        <v>0.837394484016829</v>
+        <v>0.9248128753044993</v>
       </c>
       <c r="T26">
-        <v>0.9986946058748801</v>
+        <v>1.060004934145828</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.47703742852918</v>
+        <v>0.02923504675962558</v>
       </c>
       <c r="D27">
-        <v>0.5977399915318566</v>
+        <v>1.253059859097973</v>
       </c>
       <c r="E27">
-        <v>1.47703742852918</v>
+        <v>0.02923504675962558</v>
       </c>
       <c r="F27">
-        <v>1.259472248986328</v>
+        <v>1.596108417746434</v>
       </c>
       <c r="G27">
-        <v>0.9940556159157634</v>
+        <v>0.457590190648458</v>
       </c>
       <c r="H27">
-        <v>1.293814754203497</v>
+        <v>1.184102219034402</v>
       </c>
       <c r="I27">
-        <v>1.259472248986328</v>
+        <v>1.596108417746434</v>
       </c>
       <c r="J27">
-        <v>0.8618734960870966</v>
+        <v>1.181121300241148</v>
       </c>
       <c r="K27">
-        <v>1.259472248986328</v>
+        <v>1.596108417746434</v>
       </c>
       <c r="L27">
-        <v>0.5977399915318566</v>
+        <v>1.253059859097973</v>
       </c>
       <c r="M27">
-        <v>1.037388710030518</v>
+        <v>0.6411474529287992</v>
       </c>
       <c r="N27">
-        <v>1.037388710030518</v>
+        <v>0.6411474529287992</v>
       </c>
       <c r="O27">
-        <v>1.0229443453256</v>
+        <v>0.5799616988353521</v>
       </c>
       <c r="P27">
-        <v>1.111416556349122</v>
+        <v>0.9594677745346774</v>
       </c>
       <c r="Q27">
-        <v>1.111416556349122</v>
+        <v>0.9594677745346774</v>
       </c>
       <c r="R27">
-        <v>1.148430479508423</v>
+        <v>1.118627935337617</v>
       </c>
       <c r="S27">
-        <v>1.148430479508423</v>
+        <v>1.118627935337617</v>
       </c>
       <c r="T27">
-        <v>1.080665589208954</v>
+        <v>0.9502028389213401</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8328587192631167</v>
+        <v>0.632979649862571</v>
       </c>
       <c r="D28">
-        <v>1.007129674435472</v>
+        <v>0.9456827760735524</v>
       </c>
       <c r="E28">
-        <v>0.8328587192631167</v>
+        <v>0.632979649862571</v>
       </c>
       <c r="F28">
-        <v>0.6972555219298885</v>
+        <v>0.8854577550655962</v>
       </c>
       <c r="G28">
-        <v>0.9798383085847263</v>
+        <v>0.9597196120801265</v>
       </c>
       <c r="H28">
-        <v>0.965961310438687</v>
+        <v>1.556264520183781</v>
       </c>
       <c r="I28">
-        <v>0.6972555219298885</v>
+        <v>0.8854577550655962</v>
       </c>
       <c r="J28">
-        <v>1.130686746036886</v>
+        <v>1.012063321983654</v>
       </c>
       <c r="K28">
-        <v>0.6972555219298885</v>
+        <v>0.8854577550655962</v>
       </c>
       <c r="L28">
-        <v>1.007129674435472</v>
+        <v>0.9456827760735524</v>
       </c>
       <c r="M28">
-        <v>0.9199941968492943</v>
+        <v>0.7893312129680617</v>
       </c>
       <c r="N28">
-        <v>0.9199941968492943</v>
+        <v>0.7893312129680617</v>
       </c>
       <c r="O28">
-        <v>0.9399422340944383</v>
+        <v>0.8461273460054167</v>
       </c>
       <c r="P28">
-        <v>0.845747971876159</v>
+        <v>0.8213733936672399</v>
       </c>
       <c r="Q28">
-        <v>0.845747971876159</v>
+        <v>0.8213733936672399</v>
       </c>
       <c r="R28">
-        <v>0.8086248593895914</v>
+        <v>0.837394484016829</v>
       </c>
       <c r="S28">
-        <v>0.8086248593895914</v>
+        <v>0.837394484016829</v>
       </c>
       <c r="T28">
-        <v>0.9356217134481294</v>
+        <v>0.9986946058748801</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.47703742852918</v>
+      </c>
+      <c r="D29">
+        <v>0.5977399915318566</v>
+      </c>
+      <c r="E29">
+        <v>1.47703742852918</v>
+      </c>
+      <c r="F29">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="G29">
+        <v>0.9940556159157634</v>
+      </c>
+      <c r="H29">
+        <v>1.293814754203497</v>
+      </c>
+      <c r="I29">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="J29">
+        <v>0.8618734960870966</v>
+      </c>
+      <c r="K29">
+        <v>1.259472248986328</v>
+      </c>
+      <c r="L29">
+        <v>0.5977399915318566</v>
+      </c>
+      <c r="M29">
+        <v>1.037388710030518</v>
+      </c>
+      <c r="N29">
+        <v>1.037388710030518</v>
+      </c>
+      <c r="O29">
+        <v>1.0229443453256</v>
+      </c>
+      <c r="P29">
+        <v>1.111416556349122</v>
+      </c>
+      <c r="Q29">
+        <v>1.111416556349122</v>
+      </c>
+      <c r="R29">
+        <v>1.148430479508423</v>
+      </c>
+      <c r="S29">
+        <v>1.148430479508423</v>
+      </c>
+      <c r="T29">
+        <v>1.080665589208954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8328587192631167</v>
+      </c>
+      <c r="D30">
+        <v>1.007129674435472</v>
+      </c>
+      <c r="E30">
+        <v>0.8328587192631167</v>
+      </c>
+      <c r="F30">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="G30">
+        <v>0.9798383085847263</v>
+      </c>
+      <c r="H30">
+        <v>0.965961310438687</v>
+      </c>
+      <c r="I30">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="J30">
+        <v>1.130686746036886</v>
+      </c>
+      <c r="K30">
+        <v>0.6972555219298885</v>
+      </c>
+      <c r="L30">
+        <v>1.007129674435472</v>
+      </c>
+      <c r="M30">
+        <v>0.9199941968492943</v>
+      </c>
+      <c r="N30">
+        <v>0.9199941968492943</v>
+      </c>
+      <c r="O30">
+        <v>0.9399422340944383</v>
+      </c>
+      <c r="P30">
+        <v>0.845747971876159</v>
+      </c>
+      <c r="Q30">
+        <v>0.845747971876159</v>
+      </c>
+      <c r="R30">
+        <v>0.8086248593895914</v>
+      </c>
+      <c r="S30">
+        <v>0.8086248593895914</v>
+      </c>
+      <c r="T30">
+        <v>0.9356217134481294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.203768226735622</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.071767297350074</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.203768226735622</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.6319608245189657</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.7998256604095222</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9343519415857798</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6319608245189657</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.350638637106521</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.6319608245189657</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.071767297350074</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.637767762042848</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.637767762042848</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.6917870614984061</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.6358321162015539</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.6358321162015539</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.6348642932809069</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6348642932809069</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.8320520979510807</v>
       </c>
     </row>
